--- a/electrocomponents inventory_organized_box.xlsx
+++ b/electrocomponents inventory_organized_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87227B6-F26C-4590-9BBD-007C1B1B5BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AE5DD-E1A2-4452-8C4A-4391DB9DA532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" activeTab="1" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="3" activeTab="4" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1013">
   <si>
     <t>connectors</t>
   </si>
@@ -2233,14 +2233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RMCF0603FT49R9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMCF 1/16 1K 5% R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3223,9 +3215,6 @@
     <t>10000pf</t>
   </si>
   <si>
-    <t>RF  BOX</t>
-  </si>
-  <si>
     <t>0603YC104KAT2A</t>
   </si>
   <si>
@@ -3239,6 +3228,27 @@
   </si>
   <si>
     <t>10V</t>
+  </si>
+  <si>
+    <t>RMCF 1/16 1K 5% R</t>
+  </si>
+  <si>
+    <t>RMCF0603FT49R9</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>SIM-14LH+</t>
+  </si>
+  <si>
+    <t>RF_3_box</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>RF_1_BOX</t>
   </si>
 </sst>
 </file>
@@ -3296,7 +3306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3351,13 +3361,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3367,7 +3420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3521,6 +3574,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3538,7 +3597,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="51">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3642,6 +3701,17 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3946,21 +4016,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A2:G214" xr:uid="{0FD037C0-1464-43AE-809C-A9DC97B9F51E}"/>
   <sortState ref="A3:F210">
     <sortCondition ref="A2:A210"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="48" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="46">
       <calculatedColumnFormula>IF(RIGHT(B3,1)="K",VALUE(LEFT(B3,LEN(B3)-1))*1000,VALUE(B3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="44" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4005,79 +4075,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G105" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:G105" xr:uid="{1CC63D22-B8E7-4B69-BD1C-E95AF129CAAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G104" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:G104" xr:uid="{1CC63D22-B8E7-4B69-BD1C-E95AF129CAAC}"/>
   <sortState ref="A2:F100">
     <sortCondition ref="A1:A100"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A2:D42" xr:uid="{61B74AC4-0FEA-49DC-9157-D78DB9E61967}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:B78" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:B78" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:B78" xr:uid="{7E7AB043-6248-4B89-871E-E1E0B44A7144}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:C63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:C63" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1880903D-4F20-48EB-8A16-6CDA9D9D2273}" name="vco" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{BB3B3B28-03E8-43F1-B975-FCC9834F96F9}" name="package" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{9C819785-5ED7-43BF-95FD-632290D44936}" name="quanitity" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:D63" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:D63" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1880903D-4F20-48EB-8A16-6CDA9D9D2273}" name="vco" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{BB3B3B28-03E8-43F1-B975-FCC9834F96F9}" name="package" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9C819785-5ED7-43BF-95FD-632290D44936}" name="quanitity" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{559B44BA-988F-4F67-AA50-79CE67B4760A}" name="Column1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:C30" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:C30" xr:uid="{3E00B05E-3CAB-451C-980B-8DF338A03BF7}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A1:D32" xr:uid="{3E00B05E-3CAB-451C-980B-8DF338A03BF7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{785A33AB-0DFD-498E-9053-5DC128B39D19}" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CF7AD01F-A2A9-49C4-B556-9167B10CC447}" name="Table8" displayName="Table8" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29" xr:uid="{AE52C8EC-0936-4C7A-A36B-61715BA46526}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CF7AD01F-A2A9-49C4-B556-9167B10CC447}" name="Table8" displayName="Table8" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{AE52C8EC-0936-4C7A-A36B-61715BA46526}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FCD5F671-EB20-44FA-9894-0D380585B636}" name="Amplifier" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{8745B568-8F2E-4BEE-8CE3-C944E1CE2D1A}" name="package"/>
     <tableColumn id="3" xr3:uid="{10DBDB03-C0FE-464B-9749-27BF2CB00B37}" name="number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{842B75BF-8644-4EB3-8CD7-4CF068E7FB0A}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4429,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C469EB1-7C4F-44C2-A2B1-C1B425A668CE}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4474,13 +4547,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:12">
@@ -4503,15 +4576,15 @@
         <v>539</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="47" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C3" s="47">
         <f t="shared" ref="C3:C12" si="0">IF(RIGHT(B3,1)="K",VALUE(LEFT(B3,LEN(B3)-1))*1000,VALUE(B3))</f>
@@ -4530,7 +4603,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>241</v>
@@ -4552,7 +4625,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="47" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>285</v>
@@ -4574,7 +4647,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="47" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B6" s="47">
         <v>60.4</v>
@@ -4596,7 +4669,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="47" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B7" s="47">
         <v>60.4</v>
@@ -5271,10 +5344,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="41" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C41" s="43">
         <f t="shared" ref="C41:C52" si="2">IF(RIGHT(B41,1)="K",VALUE(LEFT(B41,LEN(B41)-1))*1000,VALUE(B41))</f>
@@ -5288,12 +5361,12 @@
         <v>500</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B42" s="47" t="s">
         <v>293</v>
@@ -5315,10 +5388,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="47" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C43" s="47">
         <f t="shared" si="2"/>
@@ -5337,10 +5410,10 @@
     </row>
     <row r="44" spans="1:12" ht="15.6">
       <c r="A44" s="52" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C44" s="47">
         <f t="shared" si="2"/>
@@ -5351,7 +5424,7 @@
         <v>174</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G44" s="49"/>
       <c r="J44" s="2"/>
@@ -5398,7 +5471,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B47" s="47" t="s">
         <v>238</v>
@@ -5420,7 +5493,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>238</v>
@@ -5580,7 +5653,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.6">
       <c r="A56" s="52" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B56" s="52">
         <v>100</v>
@@ -5594,7 +5667,7 @@
         <v>173</v>
       </c>
       <c r="F56" s="53" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G56" s="49"/>
       <c r="K56" s="2"/>
@@ -5602,7 +5675,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.6">
       <c r="A57" s="52" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B57" s="52">
         <v>50</v>
@@ -5616,7 +5689,7 @@
         <v>173</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G57" s="49"/>
       <c r="K57" s="2"/>
@@ -5660,10 +5733,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C60" s="29">
         <f t="shared" si="3"/>
@@ -5800,7 +5873,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="47" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>211</v>
@@ -5942,10 +6015,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="47" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C74" s="47">
         <f t="shared" si="3"/>
@@ -5964,7 +6037,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.6">
       <c r="A75" s="52" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B75" s="52">
         <v>100</v>
@@ -5978,7 +6051,7 @@
         <v>173</v>
       </c>
       <c r="F75" s="53" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G75" s="49"/>
       <c r="K75" s="2"/>
@@ -5986,7 +6059,7 @@
     </row>
     <row r="76" spans="1:12" ht="15.6">
       <c r="A76" s="52" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>293</v>
@@ -6000,7 +6073,7 @@
         <v>173</v>
       </c>
       <c r="F76" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G76" s="49"/>
       <c r="K76" s="2"/>
@@ -6008,10 +6081,10 @@
     </row>
     <row r="77" spans="1:12" ht="15.6">
       <c r="A77" s="52" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C77" s="47">
         <f t="shared" si="3"/>
@@ -6022,7 +6095,7 @@
         <v>173</v>
       </c>
       <c r="F77" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G77" s="49"/>
       <c r="K77" s="2"/>
@@ -6050,7 +6123,7 @@
     </row>
     <row r="79" spans="1:12" ht="15.6">
       <c r="A79" s="52" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B79" s="52" t="s">
         <v>228</v>
@@ -6064,7 +6137,7 @@
         <v>173</v>
       </c>
       <c r="F79" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G79" s="49"/>
       <c r="K79" s="2"/>
@@ -6072,7 +6145,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.6">
       <c r="A80" s="52" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B80" s="52">
         <v>49.9</v>
@@ -6086,13 +6159,13 @@
         <v>173</v>
       </c>
       <c r="F80" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G80" s="49"/>
     </row>
     <row r="81" spans="1:7" ht="15.6">
       <c r="A81" s="52" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B81" s="52">
         <v>49.9</v>
@@ -6106,13 +6179,13 @@
         <v>173</v>
       </c>
       <c r="F81" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G81" s="49"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="43" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B82" s="43">
         <v>0</v>
@@ -6129,12 +6202,12 @@
         <v>200</v>
       </c>
       <c r="G82" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.6">
       <c r="A83" s="52" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B83" s="52" t="s">
         <v>293</v>
@@ -6148,13 +6221,13 @@
         <v>173</v>
       </c>
       <c r="F83" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G83" s="49"/>
     </row>
     <row r="84" spans="1:7" ht="15.6">
       <c r="A84" s="52" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B84" s="52" t="s">
         <v>228</v>
@@ -6168,13 +6241,13 @@
         <v>173</v>
       </c>
       <c r="F84" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G84" s="49"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="47" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B85" s="47">
         <v>100</v>
@@ -6230,7 +6303,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="43" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>293</v>
@@ -6247,7 +6320,7 @@
         <v>100</v>
       </c>
       <c r="G88" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6270,7 +6343,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="47" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B90" s="47">
         <v>113</v>
@@ -6326,10 +6399,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="47" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C93" s="47">
         <f t="shared" ref="C93:C98" si="5">IF(RIGHT(B93,1)="K",VALUE(LEFT(B93,LEN(B93)-1))*1000,VALUE(B93))</f>
@@ -6346,10 +6419,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="47" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C94" s="47">
         <f t="shared" si="5"/>
@@ -6366,10 +6439,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="47" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C95" s="47">
         <f t="shared" si="5"/>
@@ -6386,10 +6459,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="47" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C96" s="47">
         <f t="shared" si="5"/>
@@ -6406,7 +6479,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B97" s="47">
         <v>200</v>
@@ -6426,7 +6499,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="47" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B98" s="47" t="s">
         <v>228</v>
@@ -6556,10 +6629,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="47" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C105" s="47">
         <f>IF(RIGHT(B105,1)="K",VALUE(LEFT(B105,LEN(B105)-1))*1000,VALUE(B105))</f>
@@ -6576,10 +6649,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="47" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C106" s="47">
         <f>IF(RIGHT(B106,1)="K",VALUE(LEFT(B106,LEN(B106)-1))*1000,VALUE(B106))</f>
@@ -6634,10 +6707,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="47" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C109" s="47">
         <f t="shared" si="6"/>
@@ -6654,7 +6727,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B110" s="47">
         <v>332</v>
@@ -6674,10 +6747,10 @@
     </row>
     <row r="111" spans="1:7" ht="15.6">
       <c r="A111" s="52" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C111" s="47">
         <f t="shared" si="6"/>
@@ -6688,13 +6761,13 @@
         <v>174</v>
       </c>
       <c r="F111" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G111" s="49"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B112" s="47">
         <v>374</v>
@@ -6714,10 +6787,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="43" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C113" s="43">
         <f t="shared" si="6"/>
@@ -6731,7 +6804,7 @@
         <v>300</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6754,7 +6827,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="47" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B115" s="47">
         <v>453</v>
@@ -6774,10 +6847,10 @@
     </row>
     <row r="116" spans="1:7" ht="15.6">
       <c r="A116" s="52" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C116" s="47">
         <f>IF(RIGHT(B116,1)="K",VALUE(LEFT(B116,LEN(B116)-1))*1000,VALUE(B116))</f>
@@ -6788,7 +6861,7 @@
         <v>174</v>
       </c>
       <c r="F116" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G116" s="49"/>
     </row>
@@ -6811,7 +6884,7 @@
         <v>1000</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6834,7 +6907,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B119" s="47">
         <v>53.6</v>
@@ -6854,10 +6927,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C120" s="47">
         <f t="shared" si="7"/>
@@ -6874,7 +6947,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="47" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B121" s="47">
         <v>604</v>
@@ -6894,7 +6967,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="47" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B122" s="47">
         <v>64.900000000000006</v>
@@ -6914,7 +6987,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="47" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B123" s="47">
         <v>64.900000000000006</v>
@@ -6934,7 +7007,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B124" s="47">
         <v>68</v>
@@ -6972,10 +7045,10 @@
     </row>
     <row r="126" spans="1:7" ht="15.6">
       <c r="A126" s="52" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B126" s="52" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C126" s="47">
         <f t="shared" ref="C126:C150" si="8">IF(RIGHT(B126,1)="K",VALUE(LEFT(B126,LEN(B126)-1))*1000,VALUE(B126))</f>
@@ -6986,16 +7059,16 @@
         <v>174</v>
       </c>
       <c r="F126" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G126" s="49"/>
     </row>
     <row r="127" spans="1:7" ht="15.6">
       <c r="A127" s="52" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C127" s="47">
         <f t="shared" si="8"/>
@@ -7006,7 +7079,7 @@
         <v>174</v>
       </c>
       <c r="F127" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G127" s="49"/>
     </row>
@@ -7030,7 +7103,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="47" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B129" s="47">
         <v>120</v>
@@ -7050,7 +7123,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="47" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B130" s="47">
         <v>15</v>
@@ -7070,7 +7143,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="47" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B131" s="47" t="s">
         <v>228</v>
@@ -7090,10 +7163,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C132" s="47">
         <f t="shared" si="8"/>
@@ -7110,10 +7183,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="47" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C133" s="47">
         <f t="shared" si="8"/>
@@ -7130,10 +7203,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="29" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C134" s="29">
         <f t="shared" si="8"/>
@@ -7150,10 +7223,10 @@
     </row>
     <row r="135" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A135" s="52" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C135" s="47">
         <f t="shared" si="8"/>
@@ -7164,16 +7237,16 @@
         <v>174</v>
       </c>
       <c r="F135" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G135" s="49"/>
     </row>
     <row r="136" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A136" s="52" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C136" s="47">
         <f t="shared" si="8"/>
@@ -7184,13 +7257,13 @@
         <v>174</v>
       </c>
       <c r="F136" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G136" s="49"/>
     </row>
     <row r="137" spans="1:7" s="39" customFormat="1">
       <c r="A137" s="47" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B137" s="47">
         <v>33</v>
@@ -7210,7 +7283,7 @@
     </row>
     <row r="138" spans="1:7" s="39" customFormat="1">
       <c r="A138" s="47" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B138" s="47" t="s">
         <v>280</v>
@@ -7230,7 +7303,7 @@
     </row>
     <row r="139" spans="1:7" s="39" customFormat="1">
       <c r="A139" s="47" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B139" s="47">
         <v>4.7</v>
@@ -7250,10 +7323,10 @@
     </row>
     <row r="140" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A140" s="52" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C140" s="47">
         <f t="shared" si="8"/>
@@ -7264,16 +7337,16 @@
         <v>174</v>
       </c>
       <c r="F140" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G140" s="49"/>
     </row>
     <row r="141" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A141" s="52" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B141" s="52" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C141" s="47">
         <f t="shared" si="8"/>
@@ -7284,16 +7357,16 @@
         <v>174</v>
       </c>
       <c r="F141" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G141" s="49"/>
     </row>
     <row r="142" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A142" s="52" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B142" s="52" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C142" s="47">
         <f t="shared" si="8"/>
@@ -7304,16 +7377,16 @@
         <v>174</v>
       </c>
       <c r="F142" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G142" s="49"/>
     </row>
     <row r="143" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A143" s="52" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C143" s="47">
         <f t="shared" si="8"/>
@@ -7324,16 +7397,16 @@
         <v>174</v>
       </c>
       <c r="F143" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G143" s="49"/>
     </row>
     <row r="144" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A144" s="52" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B144" s="52" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C144" s="47">
         <f t="shared" si="8"/>
@@ -7344,16 +7417,16 @@
         <v>174</v>
       </c>
       <c r="F144" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G144" s="49"/>
     </row>
     <row r="145" spans="1:7" s="39" customFormat="1" ht="15.6">
       <c r="A145" s="52" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B145" s="52" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C145" s="47">
         <f t="shared" si="8"/>
@@ -7364,7 +7437,7 @@
         <v>174</v>
       </c>
       <c r="F145" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G145" s="49"/>
     </row>
@@ -7388,7 +7461,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="47" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B147" s="47" t="s">
         <v>228</v>
@@ -7408,7 +7481,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B148" s="29">
         <v>49</v>
@@ -7556,7 +7629,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="47" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B156" s="47">
         <v>30</v>
@@ -7612,7 +7685,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B159" s="47">
         <v>0</v>
@@ -7632,7 +7705,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="47" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B160" s="47" t="s">
         <v>293</v>
@@ -7652,7 +7725,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B161" s="29">
         <v>49.9</v>
@@ -7760,7 +7833,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="47" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B167" s="47">
         <v>113</v>
@@ -7816,10 +7889,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="41" t="s">
-        <v>695</v>
+        <v>1006</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C170" s="43">
         <f>IF(RIGHT(B170,1)="K",VALUE(LEFT(B170,LEN(B170)-1))*1000,VALUE(B170))</f>
@@ -7833,7 +7906,7 @@
         <v>3000</v>
       </c>
       <c r="G170" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7892,10 +7965,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="41" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C174" s="43">
         <f>IF(RIGHT(B174,1)="K",VALUE(LEFT(B174,LEN(B174)-1))*1000,VALUE(B174))</f>
@@ -7909,7 +7982,7 @@
         <v>1000</v>
       </c>
       <c r="G174" s="49" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7932,7 +8005,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B176" s="47">
         <v>402</v>
@@ -7952,7 +8025,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B177" s="47">
         <v>402</v>
@@ -7990,7 +8063,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="41" t="s">
-        <v>694</v>
+        <v>1007</v>
       </c>
       <c r="B179" s="42">
         <v>50</v>
@@ -8007,7 +8080,7 @@
         <v>1000</v>
       </c>
       <c r="G179" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -8030,7 +8103,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="47" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B181" s="47" t="s">
         <v>293</v>
@@ -8068,7 +8141,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B183" s="29">
         <v>100</v>
@@ -8088,7 +8161,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="47" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B184" s="47" t="s">
         <v>293</v>
@@ -8108,7 +8181,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B185" s="29">
         <v>51</v>
@@ -8128,7 +8201,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="29" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B186" s="29">
         <v>0</v>
@@ -8148,7 +8221,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="47" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B187" s="47" t="s">
         <v>293</v>
@@ -8168,10 +8241,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="29" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C188" s="29">
         <f>IF(RIGHT(B188,1)="K",VALUE(LEFT(B188,LEN(B188)-1))*1000,VALUE(B188))</f>
@@ -8188,7 +8261,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B189" s="29">
         <v>51</v>
@@ -8208,7 +8281,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="47" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B190" s="47" t="s">
         <v>293</v>
@@ -8228,10 +8301,10 @@
     </row>
     <row r="191" spans="1:7" ht="15.6">
       <c r="A191" s="52" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B191" s="52" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C191" s="47">
         <f t="shared" si="10"/>
@@ -8242,13 +8315,13 @@
         <v>174</v>
       </c>
       <c r="F191" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G191" s="49"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B192" s="47" t="s">
         <v>293</v>
@@ -8266,9 +8339,9 @@
       </c>
       <c r="G192" s="49"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:11">
       <c r="A193" s="47" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B193" s="47" t="s">
         <v>293</v>
@@ -8286,9 +8359,9 @@
       </c>
       <c r="G193" s="49"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:11">
       <c r="A194" s="47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B194" s="47" t="s">
         <v>228</v>
@@ -8305,13 +8378,14 @@
         <v>3000</v>
       </c>
       <c r="G194" s="49"/>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="K194" s="61"/>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="47" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B195" s="47" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C195" s="47">
         <f t="shared" si="10"/>
@@ -8326,12 +8400,12 @@
       </c>
       <c r="G195" s="49"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:11">
       <c r="A196" s="47" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B196" s="47" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C196" s="47">
         <f t="shared" si="10"/>
@@ -8346,7 +8420,7 @@
       </c>
       <c r="G196" s="49"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:11">
       <c r="A197" s="47" t="s">
         <v>283</v>
       </c>
@@ -8364,7 +8438,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="49"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:11">
       <c r="A198" s="47" t="s">
         <v>253</v>
       </c>
@@ -8382,7 +8456,7 @@
       <c r="F198" s="47"/>
       <c r="G198" s="49"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:11">
       <c r="A199" s="47" t="s">
         <v>273</v>
       </c>
@@ -8400,7 +8474,7 @@
       <c r="F199" s="47"/>
       <c r="G199" s="49"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:11">
       <c r="A200" s="47" t="s">
         <v>297</v>
       </c>
@@ -8418,9 +8492,9 @@
       <c r="F200" s="2"/>
       <c r="G200" s="49"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:11">
       <c r="A201" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B201" s="29">
         <v>4.7</v>
@@ -8438,9 +8512,9 @@
       </c>
       <c r="G201" s="49"/>
     </row>
-    <row r="202" spans="1:7" ht="15.6">
+    <row r="202" spans="1:11" ht="15.6">
       <c r="A202" s="52" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B202" s="52">
         <v>110</v>
@@ -8454,13 +8528,13 @@
         <v>173</v>
       </c>
       <c r="F202" s="53" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G202" s="49"/>
     </row>
-    <row r="203" spans="1:7" ht="15.6">
+    <row r="203" spans="1:11" ht="15.6">
       <c r="A203" s="52" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B203" s="52">
         <v>255</v>
@@ -8474,11 +8548,11 @@
         <v>173</v>
       </c>
       <c r="F203" s="53" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G203" s="49"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:11">
       <c r="A204" s="29" t="s">
         <v>376</v>
       </c>
@@ -8496,9 +8570,9 @@
       <c r="F204" s="28"/>
       <c r="G204" s="49"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:11">
       <c r="A205" s="47" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B205" s="47" t="s">
         <v>228</v>
@@ -8516,12 +8590,12 @@
       </c>
       <c r="G205" s="49"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:11">
       <c r="A206" s="47" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B206" s="47" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C206" s="47">
         <f t="shared" si="11"/>
@@ -8536,12 +8610,12 @@
       </c>
       <c r="G206" s="49"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:11">
       <c r="A207" s="29" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B207" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C207" s="29">
         <f t="shared" si="11"/>
@@ -8556,12 +8630,12 @@
       </c>
       <c r="G207" s="49"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:11">
       <c r="A208" s="47" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B208" s="47" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C208" s="47">
         <f t="shared" si="11"/>
@@ -8578,7 +8652,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B209" s="29">
         <v>680</v>
@@ -8595,12 +8669,12 @@
         <v>5000</v>
       </c>
       <c r="G209" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="47" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B210" s="47">
         <v>150</v>
@@ -8617,12 +8691,12 @@
         <v>3000</v>
       </c>
       <c r="G210" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.6">
       <c r="A211" s="58" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B211" s="58">
         <v>16.5</v>
@@ -8636,15 +8710,15 @@
         <v>173</v>
       </c>
       <c r="F211" s="59" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G211" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.6">
       <c r="A212" s="58" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B212" s="58">
         <v>0</v>
@@ -8658,10 +8732,10 @@
         <v>173</v>
       </c>
       <c r="F212" s="59" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G212" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.6">
@@ -8815,7 +8889,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B15" s="34">
         <v>6</v>
@@ -8891,12 +8965,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -9080,13 +9154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
@@ -9096,10 +9170,10 @@
         <v>484</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>485</v>
@@ -9177,7 +9251,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>542</v>
@@ -9188,7 +9262,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B2" t="s">
         <v>544</v>
@@ -9199,7 +9273,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>544</v>
@@ -9210,7 +9284,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>544</v>
@@ -9221,7 +9295,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>544</v>
@@ -9232,7 +9306,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>544</v>
@@ -9243,7 +9317,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>544</v>
@@ -9254,7 +9328,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>544</v>
@@ -9265,7 +9339,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>544</v>
@@ -9276,7 +9350,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>544</v>
@@ -9287,7 +9361,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>544</v>
@@ -9298,7 +9372,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>544</v>
@@ -9309,7 +9383,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>544</v>
@@ -9320,7 +9394,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>544</v>
@@ -9331,7 +9405,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>544</v>
@@ -9342,7 +9416,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>544</v>
@@ -9353,7 +9427,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>544</v>
@@ -9364,7 +9438,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>544</v>
@@ -9375,7 +9449,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>544</v>
@@ -9386,7 +9460,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>544</v>
@@ -9397,7 +9471,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>544</v>
@@ -9408,7 +9482,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>544</v>
@@ -9419,7 +9493,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>544</v>
@@ -9430,7 +9504,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>544</v>
@@ -9441,7 +9515,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>544</v>
@@ -9452,7 +9526,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>544</v>
@@ -9463,7 +9537,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="34" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>544</v>
@@ -9474,7 +9548,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="34" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>544</v>
@@ -9485,7 +9559,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="34" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>544</v>
@@ -9496,7 +9570,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="34" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>544</v>
@@ -9507,7 +9581,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="34" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>544</v>
@@ -9518,7 +9592,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="34" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>544</v>
@@ -9529,7 +9603,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="34" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>544</v>
@@ -9540,7 +9614,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>544</v>
@@ -9551,7 +9625,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="34" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>544</v>
@@ -9562,7 +9636,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="34" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>544</v>
@@ -9573,7 +9647,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="34" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>544</v>
@@ -9584,7 +9658,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="34" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>544</v>
@@ -9595,7 +9669,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="34" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>544</v>
@@ -9606,7 +9680,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="34" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>544</v>
@@ -9617,7 +9691,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="34" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>544</v>
@@ -9628,7 +9702,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="34" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>544</v>
@@ -9639,7 +9713,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="34" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>544</v>
@@ -9650,7 +9724,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="34" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>544</v>
@@ -9661,7 +9735,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="34" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>544</v>
@@ -9672,7 +9746,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="34" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>544</v>
@@ -9683,7 +9757,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="34" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>544</v>
@@ -9694,7 +9768,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="34" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>544</v>
@@ -9705,7 +9779,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="34" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>544</v>
@@ -9716,7 +9790,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="34" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>544</v>
@@ -9727,7 +9801,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="34" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>544</v>
@@ -9950,7 +10024,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -9966,10 +10040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E64F4F-36F0-49B5-966B-F0F91C8DEF37}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10002,7 +10076,7 @@
         <v>539</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1">
@@ -10026,10 +10100,10 @@
     </row>
     <row r="3" spans="1:7" s="47" customFormat="1">
       <c r="A3" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C3" s="18">
         <f t="shared" si="0"/>
@@ -10049,7 +10123,7 @@
         <v>689</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="45">
         <f t="shared" si="0"/>
@@ -10063,15 +10137,15 @@
         <v>800</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
@@ -10139,7 +10213,7 @@
     </row>
     <row r="9" spans="1:7" s="47" customFormat="1">
       <c r="A9" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>321</v>
@@ -10210,7 +10284,7 @@
     </row>
     <row r="13" spans="1:7" s="47" customFormat="1">
       <c r="A13" s="18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>307</v>
@@ -10298,10 +10372,10 @@
     </row>
     <row r="18" spans="1:7" s="47" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C18" s="18">
         <f t="shared" si="0"/>
@@ -10318,10 +10392,10 @@
     </row>
     <row r="19" spans="1:7" s="47" customFormat="1">
       <c r="A19" s="18" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C19" s="18">
         <f t="shared" si="0"/>
@@ -10338,10 +10412,10 @@
     </row>
     <row r="20" spans="1:7" s="47" customFormat="1">
       <c r="A20" s="54" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
@@ -10349,19 +10423,19 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" s="47" customFormat="1">
       <c r="A21" s="54" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C21" s="18">
         <f t="shared" si="0"/>
@@ -10369,19 +10443,19 @@
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" s="47" customFormat="1">
       <c r="A22" s="54" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C22" s="18">
         <f t="shared" si="0"/>
@@ -10389,19 +10463,19 @@
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" s="47" customFormat="1">
       <c r="A23" s="54" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C23" s="18">
         <f t="shared" si="0"/>
@@ -10409,19 +10483,19 @@
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F23" s="54" t="s">
         <v>947</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>949</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" s="47" customFormat="1">
       <c r="A24" s="18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C24" s="18">
         <f t="shared" si="0"/>
@@ -10438,7 +10512,7 @@
     </row>
     <row r="25" spans="1:7" s="47" customFormat="1">
       <c r="A25" s="41" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>692</v>
@@ -10457,7 +10531,7 @@
         <v>300</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="47" customFormat="1">
@@ -10500,7 +10574,7 @@
     </row>
     <row r="28" spans="1:7" s="47" customFormat="1">
       <c r="A28" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>321</v>
@@ -10522,10 +10596,10 @@
     </row>
     <row r="29" spans="1:7" s="47" customFormat="1">
       <c r="A29" s="45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C29" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B29)), VALUE(LEFT(B29,SEARCH("pF",B29)-1)),
@@ -10582,10 +10656,10 @@
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1">
       <c r="A32" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C32" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B32)), VALUE(LEFT(B32,SEARCH("pF",B32)-1)),
@@ -10642,10 +10716,10 @@
     </row>
     <row r="35" spans="1:7" s="47" customFormat="1">
       <c r="A35" s="54" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C35" s="18">
         <f t="shared" ref="C35:C41" si="1">IF(ISNUMBER(SEARCH("pF",B35)), VALUE(LEFT(B35,SEARCH("pF",B35)-1)),
@@ -10655,19 +10729,19 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" s="47" customFormat="1">
       <c r="A36" s="54" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C36" s="18">
         <f t="shared" si="1"/>
@@ -10675,16 +10749,16 @@
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" s="47" customFormat="1">
       <c r="A37" s="45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>692</v>
@@ -10704,7 +10778,7 @@
     </row>
     <row r="38" spans="1:7" s="47" customFormat="1">
       <c r="A38" s="18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>321</v>
@@ -10724,10 +10798,10 @@
     </row>
     <row r="39" spans="1:7" s="47" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C39" s="18">
         <f t="shared" si="1"/>
@@ -10744,10 +10818,10 @@
     </row>
     <row r="40" spans="1:7" s="47" customFormat="1">
       <c r="A40" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C40" s="18">
         <f t="shared" si="1"/>
@@ -10764,7 +10838,7 @@
     </row>
     <row r="41" spans="1:7" s="47" customFormat="1">
       <c r="A41" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>179</v>
@@ -10796,7 +10870,7 @@
         <v>10000000</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>174</v>
@@ -10827,7 +10901,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="47" customFormat="1">
@@ -10889,10 +10963,10 @@
     </row>
     <row r="47" spans="1:7" s="47" customFormat="1">
       <c r="A47" s="54" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C47" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B47)), VALUE(LEFT(B47,SEARCH("pF",B47)-1)),
@@ -10902,19 +10976,19 @@
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" s="47" customFormat="1">
       <c r="A48" s="54" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C48" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B48)), VALUE(LEFT(B48,SEARCH("pF",B48)-1)),
@@ -10924,16 +10998,16 @@
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" s="47" customFormat="1">
       <c r="A49" s="54" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>301</v>
@@ -10946,19 +11020,19 @@
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F49" s="54" t="s">
         <v>947</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>949</v>
       </c>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" s="47" customFormat="1">
       <c r="A50" s="54" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C50" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B50)), VALUE(LEFT(B50,SEARCH("pF",B50)-1)),
@@ -10968,19 +11042,19 @@
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" s="47" customFormat="1">
       <c r="A51" s="54" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C51" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B51)), VALUE(LEFT(B51,SEARCH("pF",B51)-1)),
@@ -10990,10 +11064,10 @@
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F51" s="54" t="s">
         <v>947</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>949</v>
       </c>
       <c r="G51" s="18"/>
     </row>
@@ -11037,10 +11111,10 @@
     </row>
     <row r="54" spans="1:7" s="47" customFormat="1">
       <c r="A54" s="20" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C54" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B54)), VALUE(LEFT(B54,SEARCH("pF",B54)-1)),
@@ -11059,10 +11133,10 @@
     </row>
     <row r="55" spans="1:7" s="47" customFormat="1">
       <c r="A55" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C55" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B55)), VALUE(LEFT(B55,SEARCH("pF",B55)-1)),
@@ -11100,10 +11174,10 @@
     </row>
     <row r="57" spans="1:7" s="47" customFormat="1">
       <c r="A57" s="54" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C57" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B57)), VALUE(LEFT(B57,SEARCH("pF",B57)-1)),
@@ -11113,19 +11187,19 @@
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" s="47" customFormat="1">
       <c r="A58" s="54" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C58" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B58)), VALUE(LEFT(B58,SEARCH("pF",B58)-1)),
@@ -11135,10 +11209,10 @@
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G58" s="18"/>
     </row>
@@ -11163,10 +11237,10 @@
     </row>
     <row r="60" spans="1:7" s="47" customFormat="1">
       <c r="A60" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C60" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B60)), VALUE(LEFT(B60,SEARCH("pF",B60)-1)),
@@ -11185,10 +11259,10 @@
     </row>
     <row r="61" spans="1:7" s="47" customFormat="1">
       <c r="A61" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C61" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B61)), VALUE(LEFT(B61,SEARCH("pF",B61)-1)),
@@ -11294,7 +11368,7 @@
     </row>
     <row r="67" spans="1:7" s="47" customFormat="1">
       <c r="A67" s="41" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B67" s="42" t="s">
         <v>692</v>
@@ -11313,15 +11387,15 @@
         <v>300</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="47" customFormat="1">
       <c r="A68" s="18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C68" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B68)), VALUE(LEFT(B68,SEARCH("pF",B68)-1)),
@@ -11338,12 +11412,12 @@
       </c>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" s="47" customFormat="1">
+    <row r="69" spans="1:7" s="43" customFormat="1">
       <c r="A69" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C69" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B69)), VALUE(LEFT(B69,SEARCH("pF",B69)-1)),
@@ -11358,13 +11432,13 @@
       <c r="F69" s="42">
         <v>150</v>
       </c>
-      <c r="G69" s="18" t="s">
-        <v>1003</v>
+      <c r="G69" s="45" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="47" customFormat="1">
       <c r="A70" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>307</v>
@@ -11386,7 +11460,7 @@
     </row>
     <row r="71" spans="1:7" s="47" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>307</v>
@@ -11427,10 +11501,10 @@
     </row>
     <row r="73" spans="1:7" s="47" customFormat="1">
       <c r="A73" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C73" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B73)), VALUE(LEFT(B73,SEARCH("pF",B73)-1)),
@@ -11449,10 +11523,10 @@
     </row>
     <row r="74" spans="1:7" s="47" customFormat="1">
       <c r="A74" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C74" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B74)), VALUE(LEFT(B74,SEARCH("pF",B74)-1)),
@@ -11471,7 +11545,7 @@
     </row>
     <row r="75" spans="1:7" s="47" customFormat="1">
       <c r="A75" s="18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>301</v>
@@ -11550,10 +11624,10 @@
     </row>
     <row r="79" spans="1:7" s="47" customFormat="1">
       <c r="A79" s="54" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C79" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B79)), VALUE(LEFT(B79,SEARCH("pF",B79)-1)),
@@ -11563,10 +11637,10 @@
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G79" s="18"/>
     </row>
@@ -11610,7 +11684,7 @@
     </row>
     <row r="82" spans="1:7" s="47" customFormat="1">
       <c r="A82" s="54" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B82" s="54" t="s">
         <v>301</v>
@@ -11623,16 +11697,16 @@
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F82" s="54" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" s="47" customFormat="1">
       <c r="A83" s="54" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B83" s="54" t="s">
         <v>179</v>
@@ -11645,19 +11719,19 @@
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F83" s="54" t="s">
         <v>947</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>949</v>
       </c>
       <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" s="47" customFormat="1">
       <c r="A84" s="54" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C84" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B84)), VALUE(LEFT(B84,SEARCH("pF",B84)-1)),
@@ -11667,10 +11741,10 @@
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="54" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F84" s="54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G84" s="18"/>
     </row>
@@ -11695,10 +11769,10 @@
     </row>
     <row r="86" spans="1:7" s="47" customFormat="1">
       <c r="A86" s="18" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C86" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B86)), VALUE(LEFT(B86,SEARCH("pF",B86)-1)),
@@ -11793,10 +11867,10 @@
     </row>
     <row r="91" spans="1:7" s="47" customFormat="1">
       <c r="A91" s="18" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C91" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B91)), VALUE(LEFT(B91,SEARCH("pF",B91)-1)),
@@ -11815,10 +11889,10 @@
     </row>
     <row r="92" spans="1:7" s="47" customFormat="1">
       <c r="A92" s="18" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C92" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B92)), VALUE(LEFT(B92,SEARCH("pF",B92)-1)),
@@ -11934,10 +12008,10 @@
     </row>
     <row r="98" spans="1:7" s="47" customFormat="1">
       <c r="A98" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C98" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B98)), VALUE(LEFT(B98,SEARCH("pF",B98)-1)),
@@ -11953,7 +12027,7 @@
         <v>200</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="47" customFormat="1">
@@ -11996,10 +12070,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="18" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C101" s="20">
         <f t="shared" ref="C101" si="3">IF(ISNUMBER(SEARCH("pF",B101)), VALUE(LEFT(B101,SEARCH("pF",B101)-1)),
@@ -12017,10 +12091,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C102" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B102)), VALUE(LEFT(B102,SEARCH("pF",B102)-1)),
@@ -12035,15 +12109,15 @@
         <v>1000</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="18" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C103" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B103)), VALUE(LEFT(B103,SEARCH("pF",B103)-1)),
@@ -12052,7 +12126,7 @@
         <v>1000000</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>174</v>
@@ -12061,15 +12135,15 @@
         <v>300</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C104" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B104)), VALUE(LEFT(B104,SEARCH("pF",B104)-1)),
@@ -12078,7 +12152,7 @@
         <v>1000000</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>174</v>
@@ -12087,12 +12161,8 @@
         <v>300</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="F105" s="57"/>
-      <c r="G105" s="18"/>
+        <v>994</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12120,12 +12190,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
@@ -12381,16 +12451,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C24" s="2">
         <v>0.7</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E24" s="37"/>
     </row>
@@ -12399,13 +12469,13 @@
         <v>486</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C25" s="2">
         <v>1.4</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E25" s="37"/>
     </row>
@@ -12414,13 +12484,13 @@
         <v>487</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C26" s="47">
         <v>0.6</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E26" s="37"/>
     </row>
@@ -12429,13 +12499,13 @@
         <v>488</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C27" s="2">
         <v>0.4</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E27" s="37"/>
     </row>
@@ -12444,13 +12514,13 @@
         <v>489</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C28" s="2">
         <v>0.34</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E28" s="37"/>
     </row>
@@ -12459,13 +12529,13 @@
         <v>490</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C29" s="2">
         <v>0.08</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E29" s="37"/>
     </row>
@@ -12474,13 +12544,13 @@
         <v>491</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C30" s="47">
         <v>0.2</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E30" s="37"/>
     </row>
@@ -12489,13 +12559,13 @@
         <v>492</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C31" s="47">
         <v>0.36</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E31" s="37"/>
     </row>
@@ -12504,13 +12574,13 @@
         <v>493</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C32" s="47">
         <v>0.22</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E32" s="37"/>
     </row>
@@ -12519,13 +12589,13 @@
         <v>494</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C33" s="2">
         <v>0.38</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E33" s="37"/>
     </row>
@@ -12534,13 +12604,13 @@
         <v>495</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C34" s="47">
         <v>0.8</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E34" s="37"/>
     </row>
@@ -12549,11 +12619,11 @@
         <v>496</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E35" s="37"/>
     </row>
@@ -12562,13 +12632,13 @@
         <v>497</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C36" s="2">
         <v>0.42</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E36" s="37"/>
     </row>
@@ -12577,28 +12647,28 @@
         <v>498</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C37" s="2">
         <v>0.65</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C38" s="2">
         <v>1.5</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -12607,13 +12677,13 @@
         <v>499</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C39" s="2">
         <v>0.3</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E39" s="37"/>
     </row>
@@ -12622,13 +12692,13 @@
         <v>500</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C40" s="2">
         <v>0.3</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E40" s="37"/>
     </row>
@@ -12637,28 +12707,28 @@
         <v>501</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C41" s="2">
         <v>0.4</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>729</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="D42" s="47" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E42" s="37"/>
     </row>
@@ -12683,7 +12753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F56564-447C-4AC0-9A0C-F03B4328A463}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -13296,7 +13366,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="34" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B77" s="34">
         <v>2</v>
@@ -13304,7 +13374,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="34" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B78" s="34">
         <v>10</v>
@@ -13322,8 +13392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EB4CFE-179B-4419-8073-6DED6B7B165A}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13343,6 +13413,9 @@
       <c r="C1" s="10" t="s">
         <v>540</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="47" t="s">
@@ -13354,7 +13427,7 @@
       <c r="C2" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
@@ -13366,7 +13439,7 @@
       <c r="C3" s="47">
         <v>20</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="47" t="s">
@@ -13376,7 +13449,7 @@
       <c r="C4" s="47">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="47" t="s">
@@ -13388,7 +13461,7 @@
       <c r="C5" s="47">
         <v>9</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="47" t="s">
@@ -13398,7 +13471,7 @@
       <c r="C6" s="47">
         <v>30</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="47" t="s">
@@ -13410,7 +13483,7 @@
       <c r="C7" s="47">
         <v>11</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="47" t="s">
@@ -13420,7 +13493,7 @@
       <c r="C8" s="47">
         <v>20</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="47" t="s">
@@ -13430,7 +13503,7 @@
       <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
@@ -13440,7 +13513,7 @@
       <c r="C10" s="47">
         <v>20</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="47" t="s">
@@ -13450,7 +13523,7 @@
       <c r="C11" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="47" t="s">
@@ -13460,7 +13533,7 @@
       <c r="C12" s="47">
         <v>2</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="47" t="s">
@@ -13470,7 +13543,7 @@
       <c r="C13" s="47">
         <v>5</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="47" t="s">
@@ -13480,7 +13553,7 @@
       <c r="C14" s="47">
         <v>4</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="47" t="s">
@@ -13490,7 +13563,7 @@
       <c r="C15" s="47">
         <v>40</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="47" t="s">
@@ -13500,7 +13573,7 @@
       <c r="C16" s="47">
         <v>9</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="47" t="s">
@@ -13512,7 +13585,9 @@
       <c r="C17" s="47">
         <v>8</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="61" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="47" t="s">
@@ -13522,7 +13597,7 @@
       <c r="C18" s="47">
         <v>43</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="47" t="s">
@@ -13532,7 +13607,7 @@
       <c r="C19" s="47">
         <v>1</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="47" t="s">
@@ -13542,7 +13617,7 @@
       <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47" t="s">
@@ -13552,7 +13627,7 @@
       <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="47" t="s">
@@ -13562,7 +13637,7 @@
       <c r="C22" s="47">
         <v>1</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="47" t="s">
@@ -13572,7 +13647,7 @@
       <c r="C23" s="47">
         <v>5</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="47" t="s">
@@ -13582,7 +13657,7 @@
       <c r="C24" s="47">
         <v>0</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="61"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="47" t="s">
@@ -13592,7 +13667,7 @@
       <c r="C25" s="47">
         <v>5</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="47" t="s">
@@ -13602,7 +13677,7 @@
       <c r="C26" s="47">
         <v>4</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="47" t="s">
@@ -13612,7 +13687,7 @@
       <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="47" t="s">
@@ -13622,7 +13697,7 @@
       <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="47" t="s">
@@ -13632,7 +13707,7 @@
       <c r="C29" s="47">
         <v>18</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="47" t="s">
@@ -13642,7 +13717,7 @@
       <c r="C30" s="47">
         <v>4</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="47" t="s">
@@ -13652,7 +13727,7 @@
       <c r="C31" s="47">
         <v>10</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="61"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
@@ -13662,7 +13737,7 @@
       <c r="C32" s="47">
         <v>2</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="47" t="s">
@@ -13674,7 +13749,7 @@
       <c r="C33" s="47">
         <v>15</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="47" t="s">
@@ -13686,7 +13761,7 @@
       <c r="C34" s="47">
         <v>3</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="47" t="s">
@@ -13698,7 +13773,7 @@
       <c r="C35" s="47">
         <v>5</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="47" t="s">
@@ -13708,7 +13783,7 @@
       <c r="C36" s="47">
         <v>2</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="61"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="47" t="s">
@@ -13718,7 +13793,9 @@
       <c r="C37" s="47">
         <v>15</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="61" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="47" t="s">
@@ -13730,7 +13807,7 @@
       <c r="C38" s="47">
         <v>11</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="47" t="s">
@@ -13742,7 +13819,7 @@
       <c r="C39" s="47">
         <v>3</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="47" t="s">
@@ -13752,7 +13829,7 @@
       <c r="C40" s="47">
         <v>5</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="29" t="s">
@@ -13762,7 +13839,7 @@
       <c r="C41" s="47">
         <v>5</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="29" t="s">
@@ -13772,7 +13849,7 @@
       <c r="C42" s="47">
         <v>120</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="29" t="s">
@@ -13782,7 +13859,7 @@
       <c r="C43" s="29">
         <v>41</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="29" t="s">
@@ -13792,7 +13869,7 @@
       <c r="C44" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="29" t="s">
@@ -13802,7 +13879,7 @@
       <c r="C45" s="29">
         <v>4</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="29" t="s">
@@ -13812,7 +13889,7 @@
       <c r="C46" s="29">
         <v>18</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="61"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="29" t="s">
@@ -13824,7 +13901,7 @@
       <c r="C47" s="29">
         <v>115</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="61"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="29" t="s">
@@ -13834,7 +13911,7 @@
       <c r="C48" s="29">
         <v>2</v>
       </c>
-      <c r="D48" s="47"/>
+      <c r="D48" s="61"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="29" t="s">
@@ -13844,7 +13921,7 @@
       <c r="C49" s="29">
         <v>20</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="61"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="29" t="s">
@@ -13854,7 +13931,7 @@
       <c r="C50" s="29">
         <v>24</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="61"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="29" t="s">
@@ -13864,7 +13941,7 @@
       <c r="C51" s="29">
         <v>15</v>
       </c>
-      <c r="D51" s="47"/>
+      <c r="D51" s="61"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="29" t="s">
@@ -13874,7 +13951,7 @@
       <c r="C52" s="29">
         <v>18</v>
       </c>
-      <c r="D52" s="47"/>
+      <c r="D52" s="61"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="29" t="s">
@@ -13884,7 +13961,7 @@
       <c r="C53" s="29">
         <v>20</v>
       </c>
-      <c r="D53" s="47"/>
+      <c r="D53" s="61"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="29" t="s">
@@ -13894,7 +13971,7 @@
       <c r="C54" s="29">
         <v>16</v>
       </c>
-      <c r="D54" s="47"/>
+      <c r="D54" s="61"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="29" t="s">
@@ -13904,7 +13981,7 @@
       <c r="C55" s="29">
         <v>10</v>
       </c>
-      <c r="D55" s="47"/>
+      <c r="D55" s="61"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="29" t="s">
@@ -13914,7 +13991,7 @@
       <c r="C56" s="29">
         <v>50</v>
       </c>
-      <c r="D56" s="47"/>
+      <c r="D56" s="61"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="56" t="s">
@@ -13924,7 +14001,7 @@
       <c r="C57" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="61"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="56" t="s">
@@ -13932,9 +14009,11 @@
       </c>
       <c r="B58" s="55"/>
       <c r="C58" s="56">
-        <v>3</v>
-      </c>
-      <c r="D58" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="56" t="s">
@@ -13944,7 +14023,7 @@
       <c r="C59" s="56">
         <v>10</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="61"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="56" t="s">
@@ -13954,7 +14033,7 @@
       <c r="C60" s="56">
         <v>20</v>
       </c>
-      <c r="D60" s="47"/>
+      <c r="D60" s="61"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="56" t="s">
@@ -13964,7 +14043,7 @@
       <c r="C61" s="56">
         <v>3</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="61"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="56" t="s">
@@ -13974,7 +14053,9 @@
       <c r="C62" s="56">
         <v>15</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="61" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="56" t="s">
@@ -13984,7 +14065,7 @@
       <c r="C63" s="56">
         <v>6</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="61"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="47"/>
@@ -14002,10 +14083,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CBCDA1-5AE1-46DD-8299-631E93011E4D}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14015,7 +14096,7 @@
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
@@ -14025,77 +14106,89 @@
       <c r="C1" s="31" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>553</v>
       </c>
@@ -14105,8 +14198,9 @@
       <c r="C11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>558</v>
       </c>
@@ -14116,8 +14210,9 @@
       <c r="C12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>559</v>
       </c>
@@ -14127,8 +14222,9 @@
       <c r="C13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>560</v>
       </c>
@@ -14138,8 +14234,9 @@
       <c r="C14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -14149,8 +14246,9 @@
       <c r="C15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>564</v>
       </c>
@@ -14160,8 +14258,9 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>564</v>
       </c>
@@ -14171,8 +14270,9 @@
       <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>565</v>
       </c>
@@ -14182,8 +14282,9 @@
       <c r="C18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>568</v>
       </c>
@@ -14193,8 +14294,9 @@
       <c r="C19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>563</v>
       </c>
@@ -14204,8 +14306,9 @@
       <c r="C20">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>569</v>
       </c>
@@ -14215,16 +14318,18 @@
       <c r="C21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>570</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>565</v>
       </c>
@@ -14234,8 +14339,9 @@
       <c r="C23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>583</v>
       </c>
@@ -14245,8 +14351,9 @@
       <c r="C24" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>585</v>
       </c>
@@ -14256,8 +14363,9 @@
       <c r="C25" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>586</v>
       </c>
@@ -14267,8 +14375,9 @@
       <c r="C26" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>588</v>
       </c>
@@ -14278,19 +14387,21 @@
       <c r="C27" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>589</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>584</v>
+        <v>1011</v>
       </c>
       <c r="C28" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>590</v>
       </c>
@@ -14300,8 +14411,9 @@
       <c r="C29" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>592</v>
       </c>
@@ -14310,6 +14422,21 @@
       </c>
       <c r="C30" s="7">
         <v>15</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -14322,10 +14449,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C7E50B-1E42-4EBB-A787-8899DC26A882}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14335,7 +14462,7 @@
     <col min="3" max="3" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
         <v>611</v>
       </c>
@@ -14345,8 +14472,11 @@
       <c r="C1" s="10" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
         <v>566</v>
       </c>
@@ -14357,7 +14487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
         <v>567</v>
       </c>
@@ -14368,7 +14498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
         <v>571</v>
       </c>
@@ -14376,7 +14506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
         <v>572</v>
       </c>
@@ -14387,7 +14517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
         <v>573</v>
       </c>
@@ -14398,7 +14528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
         <v>574</v>
       </c>
@@ -14409,7 +14539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="17" t="s">
         <v>575</v>
       </c>
@@ -14420,7 +14550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
         <v>577</v>
       </c>
@@ -14431,7 +14561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
         <v>578</v>
       </c>
@@ -14439,7 +14569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
         <v>641</v>
       </c>
@@ -14447,17 +14577,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
         <v>642</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B13" t="s">
         <v>544</v>
@@ -14466,9 +14599,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>544</v>
@@ -14477,9 +14610,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>561</v>
@@ -14488,9 +14621,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>544</v>
@@ -14499,9 +14632,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>544</v>
@@ -14510,9 +14643,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>544</v>
@@ -14521,7 +14654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="40" t="s">
         <v>424</v>
       </c>
@@ -14532,9 +14665,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>561</v>
@@ -14543,9 +14676,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="48" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>544</v>
@@ -14554,9 +14687,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="48" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>544</v>
@@ -14565,9 +14698,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="48" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>544</v>
@@ -14576,9 +14709,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="48" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>544</v>
@@ -14587,9 +14720,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="48" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>544</v>
@@ -14598,9 +14731,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="48" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>544</v>
@@ -14609,9 +14742,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="48" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>544</v>
@@ -14620,9 +14753,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="48" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>544</v>
@@ -14631,9 +14764,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="48" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>544</v>
@@ -14641,6 +14774,12 @@
       <c r="C29" s="34">
         <v>3</v>
       </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15087,10 +15226,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">

--- a/electrocomponents inventory_organized_box.xlsx
+++ b/electrocomponents inventory_organized_box.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AE5DD-E1A2-4452-8C4A-4391DB9DA532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532B839-9446-44F4-BED1-FF379282ECF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="3" activeTab="4" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1016">
   <si>
     <t>connectors</t>
   </si>
@@ -3249,6 +3249,15 @@
   </si>
   <si>
     <t>RF_1_BOX</t>
+  </si>
+  <si>
+    <t>RF1 BOX</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>RF_3_BOX</t>
   </si>
 </sst>
 </file>
@@ -3420,7 +3429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3580,6 +3589,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3597,7 +3609,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4016,35 +4040,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A2:G214" xr:uid="{0FD037C0-1464-43AE-809C-A9DC97B9F51E}"/>
   <sortState ref="A3:F210">
     <sortCondition ref="A2:A210"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="48" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="50" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="49" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="48">
       <calculatedColumnFormula>IF(RIGHT(B3,1)="K",VALUE(LEFT(B3,LEN(B3)-1))*1000,VALUE(B3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="43" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67697638-2BCE-42B7-AB07-9264D8DA7962}" name="Table13" displayName="Table13" ref="A2:E6" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67697638-2BCE-42B7-AB07-9264D8DA7962}" name="Table13" displayName="Table13" ref="A2:E6" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:E6" xr:uid="{79A77C23-B708-4C86-A0C9-0E08A008D24F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC2371C0-A1FB-4AD1-A06E-8B7B9DE8C3F1}" name="P/N" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DC2371C0-A1FB-4AD1-A06E-8B7B9DE8C3F1}" name="P/N" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{474783D1-60A0-4B81-BA17-6E590D8ED24A}" name="Ohm"/>
     <tableColumn id="3" xr3:uid="{2A97D418-B953-4754-B65B-49E99CDA660A}" name="Column1"/>
     <tableColumn id="4" xr3:uid="{832F2D33-ABE9-4CCC-9477-1BB3E28DDE2E}" name="Column2"/>
-    <tableColumn id="5" xr3:uid="{C25AAEC5-B4A0-4393-BDC7-AB54795BE1F0}" name="footsize" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C25AAEC5-B4A0-4393-BDC7-AB54795BE1F0}" name="footsize" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4054,9 +4078,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{09A22F36-5638-4590-8B4D-BF3AFA7D3411}" name="Table10" displayName="Table10" ref="A1:C51" totalsRowShown="0">
   <autoFilter ref="A1:C51" xr:uid="{4DA58155-6D50-4262-805C-D6307C2A1649}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8B6CD845-4987-40BE-9115-98D54666FBC7}" name="Digital IC" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8B6CD845-4987-40BE-9115-98D54666FBC7}" name="Digital IC" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{FA7A6A69-14BC-4298-8C9F-EC9DE8F95959}" name="package"/>
-    <tableColumn id="3" xr3:uid="{A0098B77-B83B-4CBF-B32B-6540E23D60AC}" name="number" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A0098B77-B83B-4CBF-B32B-6540E23D60AC}" name="number" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4075,69 +4099,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G104" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G104" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:G104" xr:uid="{1CC63D22-B8E7-4B69-BD1C-E95AF129CAAC}"/>
   <sortState ref="A2:F100">
     <sortCondition ref="A1:A100"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A2:D42" xr:uid="{61B74AC4-0FEA-49DC-9157-D78DB9E61967}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:B78" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:B78" xr:uid="{7E7AB043-6248-4B89-871E-E1E0B44A7144}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:C78" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:C78" xr:uid="{7E7AB043-6248-4B89-871E-E1E0B44A7144}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BA11E872-5A87-432B-9443-89B0685E26A0}" name="Location" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:D63" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:D63" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1880903D-4F20-48EB-8A16-6CDA9D9D2273}" name="vco" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{BB3B3B28-03E8-43F1-B975-FCC9834F96F9}" name="package" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9C819785-5ED7-43BF-95FD-632290D44936}" name="quanitity" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{559B44BA-988F-4F67-AA50-79CE67B4760A}" name="Column1" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:E63" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:E63" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1880903D-4F20-48EB-8A16-6CDA9D9D2273}" name="vco" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{BB3B3B28-03E8-43F1-B975-FCC9834F96F9}" name="package" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9C819785-5ED7-43BF-95FD-632290D44936}" name="quanitity" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CE033E84-93D4-4489-AA1D-144C3A50C3F1}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{559B44BA-988F-4F67-AA50-79CE67B4760A}" name="Location" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A1:D32" xr:uid="{3E00B05E-3CAB-451C-980B-8DF338A03BF7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{785A33AB-0DFD-498E-9053-5DC128B39D19}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{785A33AB-0DFD-498E-9053-5DC128B39D19}" name="Column1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4147,9 +4173,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CF7AD01F-A2A9-49C4-B556-9167B10CC447}" name="Table8" displayName="Table8" ref="A1:D29" totalsRowShown="0">
   <autoFilter ref="A1:D29" xr:uid="{AE52C8EC-0936-4C7A-A36B-61715BA46526}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FCD5F671-EB20-44FA-9894-0D380585B636}" name="Amplifier" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FCD5F671-EB20-44FA-9894-0D380585B636}" name="Amplifier" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{8745B568-8F2E-4BEE-8CE3-C944E1CE2D1A}" name="package"/>
-    <tableColumn id="3" xr3:uid="{10DBDB03-C0FE-464B-9749-27BF2CB00B37}" name="number" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{10DBDB03-C0FE-464B-9749-27BF2CB00B37}" name="number" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{842B75BF-8644-4EB3-8CD7-4CF068E7FB0A}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4168,16 +4194,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A3DBF4B8-8181-4443-BDC5-CD3C43C2E61A}" name="Table12" displayName="Table12" ref="A2:D13" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A3DBF4B8-8181-4443-BDC5-CD3C43C2E61A}" name="Table12" displayName="Table12" ref="A2:D13" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A2:D13" xr:uid="{58E58479-2177-4C86-A702-8E9AD4A97228}"/>
   <sortState ref="A3:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A3CB8F6-AF37-4699-A239-A49FD0663D37}" name="Part Num" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{77343D91-AD91-403B-8D5D-1FEDDECEE47A}" name="Current" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3A2792CC-91E3-489D-AC2B-6BA6B48D1D74}" name="Voltage" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6E907EB9-D3F1-4156-8C7F-F55716F126E5}" name="footprint" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{1A3CB8F6-AF37-4699-A239-A49FD0663D37}" name="Part Num" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{77343D91-AD91-403B-8D5D-1FEDDECEE47A}" name="Current" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3A2792CC-91E3-489D-AC2B-6BA6B48D1D74}" name="Voltage" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6E907EB9-D3F1-4156-8C7F-F55716F126E5}" name="footprint" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4547,13 +4573,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:12">
@@ -8965,12 +8991,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -9154,13 +9180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
@@ -12190,12 +12216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
@@ -12751,10 +12777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F56564-447C-4AC0-9A0C-F03B4328A463}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12762,623 +12788,709 @@
     <col min="1" max="1" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="12" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>562</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>615</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>617</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>618</v>
       </c>
       <c r="B7" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>619</v>
       </c>
       <c r="B8" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>620</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>621</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>622</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>615</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>623</v>
       </c>
       <c r="B13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>623</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>625</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>626</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>627</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>628</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>627</v>
       </c>
       <c r="B19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>630</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>631</v>
       </c>
       <c r="B21">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>632</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>633</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>617</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>615</v>
       </c>
       <c r="B25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>625</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>633</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>620</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>634</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>617</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>635</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>636</v>
       </c>
       <c r="B32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>637</v>
       </c>
       <c r="B33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>638</v>
       </c>
       <c r="B34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>639</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>640</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>636</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>643</v>
       </c>
       <c r="B38" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>644</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>645</v>
       </c>
       <c r="B40">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>646</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="34"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>647</v>
       </c>
       <c r="B42" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>648</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="34"/>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>646</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>651</v>
       </c>
       <c r="B45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="34"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="34" t="s">
         <v>656</v>
       </c>
       <c r="B46" s="34">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="34" t="s">
         <v>657</v>
       </c>
       <c r="B47" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="34" t="s">
         <v>658</v>
       </c>
       <c r="B48" s="34">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="34" t="s">
         <v>659</v>
       </c>
       <c r="B49" s="34">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="34" t="s">
         <v>660</v>
       </c>
       <c r="B50" s="34">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="34"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="34" t="s">
         <v>661</v>
       </c>
       <c r="B51" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="34"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="34" t="s">
         <v>662</v>
       </c>
       <c r="B52" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="34" t="s">
         <v>663</v>
       </c>
       <c r="B53" s="34">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="34" t="s">
         <v>664</v>
       </c>
       <c r="B54" s="34">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="34"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="34" t="s">
         <v>665</v>
       </c>
       <c r="B55" s="34">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="34"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="34" t="s">
         <v>666</v>
       </c>
       <c r="B56" s="34">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="34"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="34" t="s">
         <v>667</v>
       </c>
       <c r="B57" s="34">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="34"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="34" t="s">
         <v>668</v>
       </c>
       <c r="B58" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="34"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="34" t="s">
         <v>669</v>
       </c>
       <c r="B59" s="34">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="34"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="34" t="s">
         <v>670</v>
       </c>
       <c r="B60" s="34">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="34"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="34" t="s">
         <v>671</v>
       </c>
       <c r="B61" s="34">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="34"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="34" t="s">
         <v>672</v>
       </c>
       <c r="B62" s="34">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="34"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="34" t="s">
         <v>673</v>
       </c>
       <c r="B63" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="34"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="34" t="s">
         <v>674</v>
       </c>
       <c r="B64" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="34"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="34" t="s">
         <v>675</v>
       </c>
       <c r="B65" s="34">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="34" t="s">
         <v>676</v>
       </c>
       <c r="B66" s="34">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="34"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="34" t="s">
         <v>677</v>
       </c>
       <c r="B67" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="34"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="34" t="s">
         <v>678</v>
       </c>
       <c r="B68" s="34">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="34" t="s">
         <v>679</v>
       </c>
       <c r="B69" s="34">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="34"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="34" t="s">
         <v>680</v>
       </c>
       <c r="B70" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="34" t="s">
         <v>681</v>
       </c>
       <c r="B71" s="34">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="34" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="34" t="s">
         <v>682</v>
       </c>
       <c r="B72" s="34">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="34" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="34" t="s">
         <v>683</v>
       </c>
       <c r="B73" s="34">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="34"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="34" t="s">
         <v>684</v>
       </c>
       <c r="B74" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="34"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="34" t="s">
         <v>685</v>
       </c>
       <c r="B75" s="34">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="34"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="34" t="s">
         <v>686</v>
       </c>
       <c r="B76" s="34">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="34" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="34" t="s">
         <v>960</v>
       </c>
       <c r="B77" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="34"/>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="34" t="s">
         <v>961</v>
       </c>
       <c r="B78" s="34">
         <v>10</v>
       </c>
+      <c r="C78" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13390,10 +13502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EB4CFE-179B-4419-8073-6DED6B7B165A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13401,9 +13513,11 @@
     <col min="1" max="1" width="30.3984375" customWidth="1"/>
     <col min="2" max="2" width="19.09765625" style="33" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>138</v>
       </c>
@@ -13416,8 +13530,11 @@
       <c r="D1" s="10" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="47" t="s">
         <v>139</v>
       </c>
@@ -13427,9 +13544,10 @@
       <c r="C2" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="65"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="47" t="s">
         <v>140</v>
       </c>
@@ -13439,9 +13557,10 @@
       <c r="C3" s="47">
         <v>20</v>
       </c>
-      <c r="D3" s="61"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="65"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
         <v>141</v>
       </c>
@@ -13449,9 +13568,10 @@
       <c r="C4" s="47">
         <v>0</v>
       </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="47" t="s">
         <v>142</v>
       </c>
@@ -13461,9 +13581,10 @@
       <c r="C5" s="47">
         <v>9</v>
       </c>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="65"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="47" t="s">
         <v>143</v>
       </c>
@@ -13471,9 +13592,12 @@
       <c r="C6" s="47">
         <v>30</v>
       </c>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="65"/>
+      <c r="E6" s="61" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="47" t="s">
         <v>144</v>
       </c>
@@ -13483,9 +13607,10 @@
       <c r="C7" s="47">
         <v>11</v>
       </c>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="65"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="47" t="s">
         <v>145</v>
       </c>
@@ -13493,9 +13618,10 @@
       <c r="C8" s="47">
         <v>20</v>
       </c>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="65"/>
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="47" t="s">
         <v>146</v>
       </c>
@@ -13503,9 +13629,10 @@
       <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="65"/>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="47" t="s">
         <v>147</v>
       </c>
@@ -13513,9 +13640,10 @@
       <c r="C10" s="47">
         <v>20</v>
       </c>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="65"/>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="47" t="s">
         <v>148</v>
       </c>
@@ -13523,9 +13651,10 @@
       <c r="C11" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="65"/>
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="47" t="s">
         <v>149</v>
       </c>
@@ -13533,9 +13662,10 @@
       <c r="C12" s="47">
         <v>2</v>
       </c>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="65"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="47" t="s">
         <v>150</v>
       </c>
@@ -13543,9 +13673,10 @@
       <c r="C13" s="47">
         <v>5</v>
       </c>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="65"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="47" t="s">
         <v>153</v>
       </c>
@@ -13553,9 +13684,10 @@
       <c r="C14" s="47">
         <v>4</v>
       </c>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="65"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="47" t="s">
         <v>151</v>
       </c>
@@ -13563,9 +13695,10 @@
       <c r="C15" s="47">
         <v>40</v>
       </c>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="65"/>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="47" t="s">
         <v>152</v>
       </c>
@@ -13573,9 +13706,10 @@
       <c r="C16" s="47">
         <v>9</v>
       </c>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="65"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="47" t="s">
         <v>541</v>
       </c>
@@ -13585,11 +13719,12 @@
       <c r="C17" s="47">
         <v>8</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="47" t="s">
         <v>154</v>
       </c>
@@ -13597,9 +13732,10 @@
       <c r="C18" s="47">
         <v>43</v>
       </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="65"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="47" t="s">
         <v>155</v>
       </c>
@@ -13607,9 +13743,10 @@
       <c r="C19" s="47">
         <v>1</v>
       </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="65"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="47" t="s">
         <v>156</v>
       </c>
@@ -13617,9 +13754,10 @@
       <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="65"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="47" t="s">
         <v>157</v>
       </c>
@@ -13627,9 +13765,10 @@
       <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="65"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="47" t="s">
         <v>158</v>
       </c>
@@ -13637,9 +13776,10 @@
       <c r="C22" s="47">
         <v>1</v>
       </c>
-      <c r="D22" s="61"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="65"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="47" t="s">
         <v>159</v>
       </c>
@@ -13647,9 +13787,10 @@
       <c r="C23" s="47">
         <v>5</v>
       </c>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="65"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="47" t="s">
         <v>160</v>
       </c>
@@ -13657,9 +13798,10 @@
       <c r="C24" s="47">
         <v>0</v>
       </c>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="65"/>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="47" t="s">
         <v>161</v>
       </c>
@@ -13667,9 +13809,10 @@
       <c r="C25" s="47">
         <v>5</v>
       </c>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="65"/>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="47" t="s">
         <v>162</v>
       </c>
@@ -13677,9 +13820,10 @@
       <c r="C26" s="47">
         <v>4</v>
       </c>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="65"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="47" t="s">
         <v>163</v>
       </c>
@@ -13687,9 +13831,10 @@
       <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="65"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="47" t="s">
         <v>164</v>
       </c>
@@ -13697,9 +13842,10 @@
       <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="61"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="65"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="47" t="s">
         <v>165</v>
       </c>
@@ -13707,9 +13853,10 @@
       <c r="C29" s="47">
         <v>18</v>
       </c>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="65"/>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="47" t="s">
         <v>166</v>
       </c>
@@ -13717,9 +13864,10 @@
       <c r="C30" s="47">
         <v>4</v>
       </c>
-      <c r="D30" s="61"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="65"/>
+      <c r="E30" s="61"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="47" t="s">
         <v>167</v>
       </c>
@@ -13727,9 +13875,10 @@
       <c r="C31" s="47">
         <v>10</v>
       </c>
-      <c r="D31" s="61"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="65"/>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="47" t="s">
         <v>168</v>
       </c>
@@ -13737,9 +13886,10 @@
       <c r="C32" s="47">
         <v>2</v>
       </c>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="65"/>
+      <c r="E32" s="61"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="47" t="s">
         <v>543</v>
       </c>
@@ -13749,9 +13899,10 @@
       <c r="C33" s="47">
         <v>15</v>
       </c>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="65"/>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="47" t="s">
         <v>545</v>
       </c>
@@ -13761,9 +13912,10 @@
       <c r="C34" s="47">
         <v>3</v>
       </c>
-      <c r="D34" s="61"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="65"/>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="47" t="s">
         <v>547</v>
       </c>
@@ -13773,9 +13925,10 @@
       <c r="C35" s="47">
         <v>5</v>
       </c>
-      <c r="D35" s="61"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="65"/>
+      <c r="E35" s="61"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="47" t="s">
         <v>548</v>
       </c>
@@ -13783,9 +13936,10 @@
       <c r="C36" s="47">
         <v>2</v>
       </c>
-      <c r="D36" s="61"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="65"/>
+      <c r="E36" s="61"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="47" t="s">
         <v>549</v>
       </c>
@@ -13793,11 +13947,12 @@
       <c r="C37" s="47">
         <v>15</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="47" t="s">
         <v>555</v>
       </c>
@@ -13807,9 +13962,10 @@
       <c r="C38" s="47">
         <v>11</v>
       </c>
-      <c r="D38" s="61"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="65"/>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="47" t="s">
         <v>557</v>
       </c>
@@ -13819,9 +13975,10 @@
       <c r="C39" s="47">
         <v>3</v>
       </c>
-      <c r="D39" s="61"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="65"/>
+      <c r="E39" s="61"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="47" t="s">
         <v>593</v>
       </c>
@@ -13829,9 +13986,10 @@
       <c r="C40" s="47">
         <v>5</v>
       </c>
-      <c r="D40" s="61"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="65"/>
+      <c r="E40" s="61"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="29" t="s">
         <v>594</v>
       </c>
@@ -13839,9 +13997,10 @@
       <c r="C41" s="47">
         <v>5</v>
       </c>
-      <c r="D41" s="61"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="65"/>
+      <c r="E41" s="61"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="29" t="s">
         <v>595</v>
       </c>
@@ -13849,9 +14008,10 @@
       <c r="C42" s="47">
         <v>120</v>
       </c>
-      <c r="D42" s="61"/>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="65"/>
+      <c r="E42" s="61"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="29" t="s">
         <v>596</v>
       </c>
@@ -13859,9 +14019,10 @@
       <c r="C43" s="29">
         <v>41</v>
       </c>
-      <c r="D43" s="61"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="29"/>
+      <c r="E43" s="61"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="29" t="s">
         <v>597</v>
       </c>
@@ -13869,9 +14030,10 @@
       <c r="C44" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="61"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="29"/>
+      <c r="E44" s="61"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="29" t="s">
         <v>598</v>
       </c>
@@ -13879,9 +14041,10 @@
       <c r="C45" s="29">
         <v>4</v>
       </c>
-      <c r="D45" s="61"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="29"/>
+      <c r="E45" s="61"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="29" t="s">
         <v>599</v>
       </c>
@@ -13889,9 +14052,10 @@
       <c r="C46" s="29">
         <v>18</v>
       </c>
-      <c r="D46" s="61"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="29"/>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="29" t="s">
         <v>600</v>
       </c>
@@ -13901,9 +14065,10 @@
       <c r="C47" s="29">
         <v>115</v>
       </c>
-      <c r="D47" s="61"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="29"/>
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="29" t="s">
         <v>601</v>
       </c>
@@ -13911,9 +14076,10 @@
       <c r="C48" s="29">
         <v>2</v>
       </c>
-      <c r="D48" s="61"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="29"/>
+      <c r="E48" s="61"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="29" t="s">
         <v>602</v>
       </c>
@@ -13921,9 +14087,10 @@
       <c r="C49" s="29">
         <v>20</v>
       </c>
-      <c r="D49" s="61"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="29"/>
+      <c r="E49" s="61"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="29" t="s">
         <v>603</v>
       </c>
@@ -13931,9 +14098,10 @@
       <c r="C50" s="29">
         <v>24</v>
       </c>
-      <c r="D50" s="61"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="29"/>
+      <c r="E50" s="61"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="29" t="s">
         <v>604</v>
       </c>
@@ -13941,9 +14109,10 @@
       <c r="C51" s="29">
         <v>15</v>
       </c>
-      <c r="D51" s="61"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="29"/>
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="29" t="s">
         <v>605</v>
       </c>
@@ -13951,9 +14120,10 @@
       <c r="C52" s="29">
         <v>18</v>
       </c>
-      <c r="D52" s="61"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="29"/>
+      <c r="E52" s="61"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="29" t="s">
         <v>606</v>
       </c>
@@ -13961,9 +14131,10 @@
       <c r="C53" s="29">
         <v>20</v>
       </c>
-      <c r="D53" s="61"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="29"/>
+      <c r="E53" s="61"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="29" t="s">
         <v>607</v>
       </c>
@@ -13971,9 +14142,10 @@
       <c r="C54" s="29">
         <v>16</v>
       </c>
-      <c r="D54" s="61"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="29"/>
+      <c r="E54" s="61"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="29" t="s">
         <v>608</v>
       </c>
@@ -13981,9 +14153,10 @@
       <c r="C55" s="29">
         <v>10</v>
       </c>
-      <c r="D55" s="61"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="29"/>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>549</v>
       </c>
@@ -13991,9 +14164,14 @@
       <c r="C56" s="29">
         <v>50</v>
       </c>
-      <c r="D56" s="61"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="29">
+        <v>50</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="56" t="s">
         <v>652</v>
       </c>
@@ -14001,9 +14179,14 @@
       <c r="C57" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="D57" s="61"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="56">
+        <v>3</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="56" t="s">
         <v>143</v>
       </c>
@@ -14011,11 +14194,14 @@
       <c r="C58" s="56">
         <v>20</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="56">
+        <v>20</v>
+      </c>
+      <c r="E58" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="56" t="s">
         <v>654</v>
       </c>
@@ -14023,9 +14209,10 @@
       <c r="C59" s="56">
         <v>10</v>
       </c>
-      <c r="D59" s="61"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="56"/>
+      <c r="E59" s="61"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="56" t="s">
         <v>543</v>
       </c>
@@ -14033,9 +14220,14 @@
       <c r="C60" s="56">
         <v>20</v>
       </c>
-      <c r="D60" s="61"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="56">
+        <v>10</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="56" t="s">
         <v>545</v>
       </c>
@@ -14043,9 +14235,10 @@
       <c r="C61" s="56">
         <v>3</v>
       </c>
-      <c r="D61" s="61"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="56"/>
+      <c r="E61" s="61"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="56" t="s">
         <v>142</v>
       </c>
@@ -14053,11 +14246,14 @@
       <c r="C62" s="56">
         <v>15</v>
       </c>
-      <c r="D62" s="61" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="56">
+        <v>12</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="56" t="s">
         <v>655</v>
       </c>
@@ -14065,13 +14261,19 @@
       <c r="C63" s="56">
         <v>6</v>
       </c>
-      <c r="D63" s="61"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="56">
+        <v>3</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="47"/>
       <c r="B64" s="55"/>
       <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15226,10 +15428,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">

--- a/electrocomponents inventory_organized_box.xlsx
+++ b/electrocomponents inventory_organized_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532B839-9446-44F4-BED1-FF379282ECF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1551D71-1D10-4CE7-B4E6-75917B2952A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="3" activeTab="4" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="1" activeTab="5" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1030">
   <si>
     <t>connectors</t>
   </si>
@@ -3258,6 +3258,48 @@
   </si>
   <si>
     <t>RF_3_BOX</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Purchase(2/5/2026)</t>
+  </si>
+  <si>
+    <t>520(IF boards)</t>
+  </si>
+  <si>
+    <t>MAR-6SM+</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>300(For IF boards)</t>
+  </si>
+  <si>
+    <t>549-CV55BE0510-0770</t>
+  </si>
+  <si>
+    <t>260(For IF boards)</t>
+  </si>
+  <si>
+    <t>523-L717SDC37P1ACH4F</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>SMT MMIC, Low Noise, Linear, HBT Amplifier, DC to 2000 MHz, 50Ω, Micro-X Style Package</t>
+  </si>
+  <si>
+    <t>D-Sub Standard Connectors 37P Sz C Std Density Pin Screwlock 4-40</t>
+  </si>
+  <si>
+    <t>34(IF boards)</t>
+  </si>
+  <si>
+    <t>D-Sub Standard Connectors</t>
   </si>
 </sst>
 </file>
@@ -3393,9 +3435,7 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3404,9 +3444,7 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3417,9 +3455,7 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3429,7 +3465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3586,8 +3622,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3609,19 +3653,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3691,6 +3723,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3733,6 +3768,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3784,6 +3822,12 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4040,35 +4084,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D45AB7-6076-40D2-9536-00E3BAF79554}" name="Table2" displayName="Table2" ref="A2:G214" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A2:G214" xr:uid="{0FD037C0-1464-43AE-809C-A9DC97B9F51E}"/>
   <sortState ref="A3:F210">
     <sortCondition ref="A2:A210"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="50" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{5359DA1D-63B9-449F-8761-A0BDB7E3BB5C}" name="Part num" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{78BAB23D-D7D5-415C-BB95-A9CFB9CB230D}" name="value (Ohm)" dataDxfId="51" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{6F7B85B6-2DAD-47C9-8DC7-E3EBA9DE5730}" name="numerical" dataDxfId="50">
       <calculatedColumnFormula>IF(RIGHT(B3,1)="K",VALUE(LEFT(B3,LEN(B3)-1))*1000,VALUE(B3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{E3227AD6-9D7D-4586-8592-8EFAF03CF88F}" name="max voltage" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{CB13A579-4548-4E1D-B6A9-15568C3CAE02}" name="footsize(imperial unit)" dataDxfId="48" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{85164B24-DE9B-475F-BCA2-3031DF432CBC}" name="quantity" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4453F552-AB58-439C-825F-461700451AE3}" name="Column1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67697638-2BCE-42B7-AB07-9264D8DA7962}" name="Table13" displayName="Table13" ref="A2:E6" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67697638-2BCE-42B7-AB07-9264D8DA7962}" name="Table13" displayName="Table13" ref="A2:E6" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:E6" xr:uid="{79A77C23-B708-4C86-A0C9-0E08A008D24F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC2371C0-A1FB-4AD1-A06E-8B7B9DE8C3F1}" name="P/N" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DC2371C0-A1FB-4AD1-A06E-8B7B9DE8C3F1}" name="P/N" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{474783D1-60A0-4B81-BA17-6E590D8ED24A}" name="Ohm"/>
     <tableColumn id="3" xr3:uid="{2A97D418-B953-4754-B65B-49E99CDA660A}" name="Column1"/>
     <tableColumn id="4" xr3:uid="{832F2D33-ABE9-4CCC-9477-1BB3E28DDE2E}" name="Column2"/>
-    <tableColumn id="5" xr3:uid="{C25AAEC5-B4A0-4393-BDC7-AB54795BE1F0}" name="footsize" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C25AAEC5-B4A0-4393-BDC7-AB54795BE1F0}" name="footsize" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4078,9 +4122,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{09A22F36-5638-4590-8B4D-BF3AFA7D3411}" name="Table10" displayName="Table10" ref="A1:C51" totalsRowShown="0">
   <autoFilter ref="A1:C51" xr:uid="{4DA58155-6D50-4262-805C-D6307C2A1649}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8B6CD845-4987-40BE-9115-98D54666FBC7}" name="Digital IC" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8B6CD845-4987-40BE-9115-98D54666FBC7}" name="Digital IC" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FA7A6A69-14BC-4298-8C9F-EC9DE8F95959}" name="package"/>
-    <tableColumn id="3" xr3:uid="{A0098B77-B83B-4CBF-B32B-6540E23D60AC}" name="number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A0098B77-B83B-4CBF-B32B-6540E23D60AC}" name="number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4099,84 +4143,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G104" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF75688-782D-4C01-90E3-4193403805DD}" name="Table3" displayName="Table3" ref="A1:G104" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:G104" xr:uid="{1CC63D22-B8E7-4B69-BD1C-E95AF129CAAC}"/>
-  <sortState ref="A2:F100">
-    <sortCondition ref="A1:A100"/>
+  <sortState ref="A2:G104">
+    <sortCondition ref="C1:C104"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{0FA94ECA-DC73-4095-A1A3-7DC0DC971EE7}" name="Part num" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{51A47A3B-6866-4FAE-A108-C3206894723B}" name="value" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9CDE2151-43C8-4644-BDFE-FD3338C9126A}" name="numerical(pf) " dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E47CDE2E-8869-4D48-ABEF-E7D3EE413963}" name="max voltage" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{F48D9526-114F-4490-8DF7-1E1C90520559}" name="footsize(imperial unit)" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{F07BAC40-A600-40D2-82D2-580D208E8517}" name="quantity" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{04348505-CDAB-41F1-ADDC-50CF4DF6CD97}" name="Column1" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{57D69974-02A1-4098-9F80-4137070F1DEB}" name="Table4" displayName="Table4" ref="A2:D42" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:D42" xr:uid="{61B74AC4-0FEA-49DC-9157-D78DB9E61967}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{97C6202E-C6E2-4FA6-A865-924166E37D46}" name="Part num" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{4D803588-4EF4-42AA-8E8A-7E4A795F10B8}" name="value " dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{59214CBC-3D51-40C4-8E8F-06121D574560}" name="CURRENT" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{200C9B0D-E4A8-4D04-8C12-0790392A612C}" name="footsize(imperial unit)" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:C78" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:C78" xr:uid="{7E7AB043-6248-4B89-871E-E1E0B44A7144}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BA11E872-5A87-432B-9443-89B0685E26A0}" name="Location" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{726AAC33-7046-4241-BF26-DAC118AB45FD}" name="Table5" displayName="Table5" ref="A1:D78" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:D78" xr:uid="{7E7AB043-6248-4B89-871E-E1E0B44A7144}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{41E8D986-5302-477C-9717-65347C9B93BC}" name="Filter" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{29F76A88-AC6B-4B4E-9BF9-14C7CEBE500C}" name="NUM" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BA11E872-5A87-432B-9443-89B0685E26A0}" name="Location" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{AAAEDBB3-A288-43A5-A524-D63D35773B64}" name="Purchase(2/5/2026)" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:E63" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:E63" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3DF4B8F7-413E-450E-B4D3-BE2C51271970}" name="Table6" displayName="Table6" ref="A1:E64" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:E64" xr:uid="{82561BE0-40CA-41F7-BF0F-1AAAE28F4956}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1880903D-4F20-48EB-8A16-6CDA9D9D2273}" name="vco" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{BB3B3B28-03E8-43F1-B975-FCC9834F96F9}" name="package" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{9C819785-5ED7-43BF-95FD-632290D44936}" name="quanitity" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{CE033E84-93D4-4489-AA1D-144C3A50C3F1}" name="Column1" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{559B44BA-988F-4F67-AA50-79CE67B4760A}" name="Location" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{34F494F7-F3A9-4A2B-8EBB-EE0DA2D4059B}" name="Purchase" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C4C6024F-439C-4DBE-A414-4F887A9998AC}" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:D32" xr:uid="{3E00B05E-3CAB-451C-980B-8DF338A03BF7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{785A33AB-0DFD-498E-9053-5DC128B39D19}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{8C1831DB-07FE-482A-A749-007C865DE873}" name="Freq Mixer" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{EE136D9D-051B-4B35-B9D1-A8B1D0F46217}" name="package" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D2BBFF47-8203-413E-BDBC-DBF393EA47DF}" name="number" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{785A33AB-0DFD-498E-9053-5DC128B39D19}" name="Column1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CF7AD01F-A2A9-49C4-B556-9167B10CC447}" name="Table8" displayName="Table8" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{AE52C8EC-0936-4C7A-A36B-61715BA46526}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FCD5F671-EB20-44FA-9894-0D380585B636}" name="Amplifier" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CF7AD01F-A2A9-49C4-B556-9167B10CC447}" name="Table8" displayName="Table8" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31" xr:uid="{AE52C8EC-0936-4C7A-A36B-61715BA46526}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FCD5F671-EB20-44FA-9894-0D380585B636}" name="Amplifier" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{8745B568-8F2E-4BEE-8CE3-C944E1CE2D1A}" name="package"/>
-    <tableColumn id="3" xr3:uid="{10DBDB03-C0FE-464B-9749-27BF2CB00B37}" name="number" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{842B75BF-8644-4EB3-8CD7-4CF068E7FB0A}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{10DBDB03-C0FE-464B-9749-27BF2CB00B37}" name="number" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{36776E7E-4A74-490E-8F64-B320A27EE6ED}" name="description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{842B75BF-8644-4EB3-8CD7-4CF068E7FB0A}" name="Position"/>
+    <tableColumn id="5" xr3:uid="{115EC9B6-9CD9-47D9-B6EF-01D312478928}" name="Purchase"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4194,16 +4241,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A3DBF4B8-8181-4443-BDC5-CD3C43C2E61A}" name="Table12" displayName="Table12" ref="A2:D13" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A3DBF4B8-8181-4443-BDC5-CD3C43C2E61A}" name="Table12" displayName="Table12" ref="A2:D13" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A2:D13" xr:uid="{58E58479-2177-4C86-A702-8E9AD4A97228}"/>
   <sortState ref="A3:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A3CB8F6-AF37-4699-A239-A49FD0663D37}" name="Part Num" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{77343D91-AD91-403B-8D5D-1FEDDECEE47A}" name="Current" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3A2792CC-91E3-489D-AC2B-6BA6B48D1D74}" name="Voltage" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6E907EB9-D3F1-4156-8C7F-F55716F126E5}" name="footprint" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1A3CB8F6-AF37-4699-A239-A49FD0663D37}" name="Part Num" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{77343D91-AD91-403B-8D5D-1FEDDECEE47A}" name="Current" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3A2792CC-91E3-489D-AC2B-6BA6B48D1D74}" name="Voltage" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6E907EB9-D3F1-4156-8C7F-F55716F126E5}" name="footprint" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4573,13 +4620,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:12">
@@ -8991,12 +9038,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -9180,13 +9227,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
@@ -10068,8 +10115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E64F4F-36F0-49B5-966B-F0F91C8DEF37}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10106,276 +10153,300 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1">
-      <c r="A2" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>502</v>
+      <c r="A2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>534</v>
       </c>
       <c r="C2" s="20">
-        <f t="shared" ref="C2:C24" si="0">IF(ISNUMBER(SEARCH("pF",B2)), VALUE(LEFT(B2,SEARCH("pF",B2)-1)),
+        <f>IF(ISNUMBER(SEARCH("pF",B2)), VALUE(LEFT(B2,SEARCH("pF",B2)-1)),
  IF(ISNUMBER(SEARCH("nF",B2)), VALUE(LEFT(B2,SEARCH("nF",B2)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B2)), VALUE(LEFT(B2,SEARCH("uF",B2)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="23" t="s">
-        <v>173</v>
+ IF(ISNUMBER(SEARCH("µF",B2)), VALUE(LEFT(B2,SEARCH("µF",B2)-1))*1000000,"")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
+        <v>691</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="47" customFormat="1">
-      <c r="A3" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="C3" s="18">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D3" s="18"/>
+      <c r="A3" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B3)), VALUE(LEFT(B3,SEARCH("pF",B3)-1)),
+ IF(ISNUMBER(SEARCH("nF",B3)), VALUE(LEFT(B3,SEARCH("nF",B3)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B3)), VALUE(LEFT(B3,SEARCH("uF",B3)-1))*1000000,"")))</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="51">
-        <v>5000</v>
-      </c>
+      <c r="F3" s="67"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1">
-      <c r="A4" s="41" t="s">
-        <v>689</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="45">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="F4" s="42">
-        <v>800</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1008</v>
-      </c>
+      <c r="A4" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B4)), VALUE(LEFT(B4,SEARCH("pF",B4)-1)),
+ IF(ISNUMBER(SEARCH("nF",B4)), VALUE(LEFT(B4,SEARCH("nF",B4)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B4)), VALUE(LEFT(B4,SEARCH("uF",B4)-1))*1000000,"")))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1">
-      <c r="A5" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B5)), VALUE(LEFT(B5,SEARCH("pF",B5)-1)),
+ IF(ISNUMBER(SEARCH("nF",B5)), VALUE(LEFT(B5,SEARCH("nF",B5)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B5)), VALUE(LEFT(B5,SEARCH("uF",B5)-1))*1000000,"")))</f>
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="51">
-        <v>100</v>
-      </c>
+      <c r="F5" s="67"/>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="47" customFormat="1">
-      <c r="A6" s="19" t="s">
-        <v>408</v>
+      <c r="A6" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C6" s="20">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B6)), VALUE(LEFT(B6,SEARCH("pF",B6)-1)),
+ IF(ISNUMBER(SEARCH("nF",B6)), VALUE(LEFT(B6,SEARCH("nF",B6)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B6)), VALUE(LEFT(B6,SEARCH("µF",B6)-1))*1000000,"")))</f>
+        <v>0.9</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="22">
-        <v>603</v>
+      <c r="E6" s="21">
+        <v>402</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" s="47" customFormat="1">
-      <c r="A7" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>504</v>
+      <c r="A7" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23">
-        <v>603</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B7)), VALUE(LEFT(B7,SEARCH("pF",B7)-1)),
+ IF(ISNUMBER(SEARCH("nF",B7)), VALUE(LEFT(B7,SEARCH("nF",B7)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B7)), VALUE(LEFT(B7,SEARCH("µF",B7)-1))*1000000,"")))</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" s="47" customFormat="1">
-      <c r="A8" s="19" t="s">
-        <v>320</v>
+      <c r="A8" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="C8" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B8)), VALUE(LEFT(B8,SEARCH("pF",B8)-1)),
+ IF(ISNUMBER(SEARCH("nF",B8)), VALUE(LEFT(B8,SEARCH("nF",B8)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B8)), VALUE(LEFT(B8,SEARCH("µF",B8)-1))*1000000,"")))</f>
+        <v>1.8</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="22">
-        <v>805</v>
+      <c r="E8" s="18">
+        <v>402</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" s="47" customFormat="1">
-      <c r="A9" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>321</v>
+      <c r="A9" s="54" t="s">
+        <v>921</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>936</v>
       </c>
       <c r="C9" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B9)), VALUE(LEFT(B9,SEARCH("pF",B9)-1)),
+ IF(ISNUMBER(SEARCH("nF",B9)), VALUE(LEFT(B9,SEARCH("nF",B9)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B9)), VALUE(LEFT(B9,SEARCH("uF",B9)-1))*1000000,"")))</f>
+        <v>2</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="51">
-        <v>5000</v>
+      <c r="E9" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>946</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1">
-      <c r="A10" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C10" s="20">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>174</v>
+      <c r="A10" s="54" t="s">
+        <v>921</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>936</v>
+      </c>
+      <c r="C10" s="18">
+        <f>IF(ISNUMBER(SEARCH("pF",B10)), VALUE(LEFT(B10,SEARCH("pF",B10)-1)),
+ IF(ISNUMBER(SEARCH("nF",B10)), VALUE(LEFT(B10,SEARCH("nF",B10)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B10)), VALUE(LEFT(B10,SEARCH("uF",B10)-1))*1000000,"")))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>947</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1">
-      <c r="A11" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>508</v>
+      <c r="A11" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>936</v>
       </c>
       <c r="C11" s="20">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="19"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B11)), VALUE(LEFT(B11,SEARCH("pF",B11)-1)),
+ IF(ISNUMBER(SEARCH("nF",B11)), VALUE(LEFT(B11,SEARCH("nF",B11)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B11)), VALUE(LEFT(B11,SEARCH("µF",B11)-1))*1000000,"")))</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="F11" s="47">
+        <v>50</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" s="47" customFormat="1">
       <c r="A12" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>509</v>
+        <v>304</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>513</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21" t="s">
-        <v>174</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B12)), VALUE(LEFT(B12,SEARCH("pF",B12)-1)),
+ IF(ISNUMBER(SEARCH("nF",B12)), VALUE(LEFT(B12,SEARCH("nF",B12)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B12)), VALUE(LEFT(B12,SEARCH("µF",B12)-1))*1000000,"")))</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23">
+        <v>402</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" s="47" customFormat="1">
-      <c r="A13" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="51">
-        <v>200</v>
-      </c>
+      <c r="A13" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B13)), VALUE(LEFT(B13,SEARCH("pF",B13)-1)),
+ IF(ISNUMBER(SEARCH("nF",B13)), VALUE(LEFT(B13,SEARCH("nF",B13)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B13)), VALUE(LEFT(B13,SEARCH("uF",B13)-1))*1000000,"")))</f>
+        <v>4.7</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23">
+        <v>603</v>
+      </c>
+      <c r="F13" s="67"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" s="47" customFormat="1">
       <c r="A14" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>510</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B14)), VALUE(LEFT(B14,SEARCH("pF",B14)-1)),
+ IF(ISNUMBER(SEARCH("nF",B14)), VALUE(LEFT(B14,SEARCH("nF",B14)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B14)), VALUE(LEFT(B14,SEARCH("uF",B14)-1))*1000000,"")))</f>
         <v>4.7</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23">
+      <c r="D14" s="19"/>
+      <c r="E14" s="22">
         <v>603</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" s="47" customFormat="1">
       <c r="A15" s="19" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C15" s="20">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B15)), VALUE(LEFT(B15,SEARCH("pF",B15)-1)),
+ IF(ISNUMBER(SEARCH("nF",B15)), VALUE(LEFT(B15,SEARCH("nF",B15)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B15)), VALUE(LEFT(B15,SEARCH("uF",B15)-1))*1000000,"")))</f>
+        <v>5.6</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>603</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" s="47" customFormat="1">
       <c r="A16" s="19" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>511</v>
       </c>
       <c r="C16" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B16)), VALUE(LEFT(B16,SEARCH("pF",B16)-1)),
+ IF(ISNUMBER(SEARCH("nF",B16)), VALUE(LEFT(B16,SEARCH("nF",B16)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B16)), VALUE(LEFT(B16,SEARCH("µF",B16)-1))*1000000,"")))</f>
         <v>5.6</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="21">
-        <v>603</v>
+      <c r="E16" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -10387,7 +10458,9 @@
         <v>512</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B17)), VALUE(LEFT(B17,SEARCH("pF",B17)-1)),
+ IF(ISNUMBER(SEARCH("nF",B17)), VALUE(LEFT(B17,SEARCH("nF",B17)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B17)), VALUE(LEFT(B17,SEARCH("uF",B17)-1))*1000000,"")))</f>
         <v>6.8</v>
       </c>
       <c r="D17" s="19"/>
@@ -10397,62 +10470,66 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" s="47" customFormat="1">
-      <c r="A18" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>780</v>
+      <c r="A18" s="54" t="s">
+        <v>922</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>937</v>
       </c>
       <c r="C18" s="18">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B18)), VALUE(LEFT(B18,SEARCH("pF",B18)-1)),
+ IF(ISNUMBER(SEARCH("nF",B18)), VALUE(LEFT(B18,SEARCH("nF",B18)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B18)), VALUE(LEFT(B18,SEARCH("uF",B18)-1))*1000000,"")))</f>
+        <v>8</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="51">
-        <v>4000</v>
+      <c r="E18" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>948</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" s="47" customFormat="1">
-      <c r="A19" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" si="0"/>
-        <v>2200000</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="51">
-        <v>1000</v>
-      </c>
+      <c r="A19" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B19)), VALUE(LEFT(B19,SEARCH("pF",B19)-1)),
+ IF(ISNUMBER(SEARCH("nF",B19)), VALUE(LEFT(B19,SEARCH("nF",B19)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B19)), VALUE(LEFT(B19,SEARCH("uF",B19)-1))*1000000,"")))</f>
+        <v>10</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="22">
+        <v>805</v>
+      </c>
+      <c r="F19" s="67"/>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" s="47" customFormat="1">
-      <c r="A20" s="54" t="s">
-        <v>924</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>938</v>
+      <c r="A20" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="C20" s="18">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B20)), VALUE(LEFT(B20,SEARCH("pF",B20)-1)),
+ IF(ISNUMBER(SEARCH("nF",B20)), VALUE(LEFT(B20,SEARCH("nF",B20)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B20)), VALUE(LEFT(B20,SEARCH("uF",B20)-1))*1000000,"")))</f>
         <v>10</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>949</v>
+      <c r="E20" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="51">
+        <v>5000</v>
       </c>
       <c r="G20" s="18"/>
     </row>
@@ -10464,7 +10541,9 @@
         <v>938</v>
       </c>
       <c r="C21" s="18">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("pF",B21)), VALUE(LEFT(B21,SEARCH("pF",B21)-1)),
+ IF(ISNUMBER(SEARCH("nF",B21)), VALUE(LEFT(B21,SEARCH("nF",B21)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B21)), VALUE(LEFT(B21,SEARCH("uF",B21)-1))*1000000,"")))</f>
         <v>10</v>
       </c>
       <c r="D21" s="18"/>
@@ -10472,1589 +10551,1661 @@
         <v>945</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" s="47" customFormat="1">
       <c r="A22" s="54" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C22" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B22)), VALUE(LEFT(B22,SEARCH("pF",B22)-1)),
+ IF(ISNUMBER(SEARCH("nF",B22)), VALUE(LEFT(B22,SEARCH("nF",B22)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B22)), VALUE(LEFT(B22,SEARCH("uF",B22)-1))*1000000,"")))</f>
+        <v>10</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="54" t="s">
         <v>945</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" s="47" customFormat="1">
-      <c r="A23" s="54" t="s">
-        <v>921</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>936</v>
+      <c r="A23" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B23)), VALUE(LEFT(B23,SEARCH("pF",B23)-1)),
+ IF(ISNUMBER(SEARCH("nF",B23)), VALUE(LEFT(B23,SEARCH("nF",B23)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B23)), VALUE(LEFT(B23,SEARCH("uF",B23)-1))*1000000,"")))</f>
+        <v>10</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>947</v>
+      <c r="E23" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="51">
+        <v>5000</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" s="47" customFormat="1">
       <c r="A24" s="18" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>776</v>
+        <v>321</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B24)), VALUE(LEFT(B24,SEARCH("pF",B24)-1)),
+ IF(ISNUMBER(SEARCH("nF",B24)), VALUE(LEFT(B24,SEARCH("nF",B24)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B24)), VALUE(LEFT(B24,SEARCH("uF",B24)-1))*1000000,"")))</f>
+        <v>10</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F24" s="51">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" s="47" customFormat="1">
-      <c r="A25" s="41" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="C25" s="45">
+      <c r="A25" s="54" t="s">
+        <v>923</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>938</v>
+      </c>
+      <c r="C25" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B25)), VALUE(LEFT(B25,SEARCH("pF",B25)-1)),
  IF(ISNUMBER(SEARCH("nF",B25)), VALUE(LEFT(B25,SEARCH("nF",B25)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B25)), VALUE(LEFT(B25,SEARCH("uF",B25)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="F25" s="42">
-        <v>300</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>999</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>948</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" s="47" customFormat="1">
-      <c r="A26" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="A26" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C26" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B26)), VALUE(LEFT(B26,SEARCH("pF",B26)-1)),
  IF(ISNUMBER(SEARCH("nF",B26)), VALUE(LEFT(B26,SEARCH("nF",B26)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B26)), VALUE(LEFT(B26,SEARCH("µF",B26)-1))*1000000,"")))</f>
-        <v>3</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23">
-        <v>402</v>
+ IF(ISNUMBER(SEARCH("uF",B26)), VALUE(LEFT(B26,SEARCH("uF",B26)-1))*1000000,"")))</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="51">
+        <v>1000</v>
       </c>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1">
-      <c r="A27" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="A27" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C27" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B27)), VALUE(LEFT(B27,SEARCH("pF",B27)-1)),
  IF(ISNUMBER(SEARCH("nF",B27)), VALUE(LEFT(B27,SEARCH("nF",B27)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B27)), VALUE(LEFT(B27,SEARCH("µF",B27)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="D27" s="19"/>
+ IF(ISNUMBER(SEARCH("uF",B27)), VALUE(LEFT(B27,SEARCH("uF",B27)-1))*1000000,"")))</f>
+        <v>15</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F27" s="51">
+        <v>300</v>
       </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" s="47" customFormat="1">
-      <c r="A28" s="18" t="s">
-        <v>811</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>321</v>
+      <c r="A28" s="54" t="s">
+        <v>925</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>939</v>
       </c>
       <c r="C28" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B28)), VALUE(LEFT(B28,SEARCH("pF",B28)-1)),
  IF(ISNUMBER(SEARCH("nF",B28)), VALUE(LEFT(B28,SEARCH("nF",B28)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B28)), VALUE(LEFT(B28,SEARCH("uF",B28)-1))*1000000,"")))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="51">
-        <v>5000</v>
+      <c r="E28" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>950</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" s="47" customFormat="1">
-      <c r="A29" s="45" t="s">
-        <v>701</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>702</v>
-      </c>
-      <c r="C29" s="45">
+      <c r="A29" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B29)), VALUE(LEFT(B29,SEARCH("pF",B29)-1)),
  IF(ISNUMBER(SEARCH("nF",B29)), VALUE(LEFT(B29,SEARCH("nF",B29)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B29)), VALUE(LEFT(B29,SEARCH("uF",B29)-1))*1000000,"")))</f>
-        <v>10000</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="42">
-        <v>200</v>
+      <c r="F29" s="51">
+        <v>3000</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" s="47" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="A30" s="54" t="s">
+        <v>926</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B30)), VALUE(LEFT(B30,SEARCH("pF",B30)-1)),
  IF(ISNUMBER(SEARCH("nF",B30)), VALUE(LEFT(B30,SEARCH("nF",B30)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B30)), VALUE(LEFT(B30,SEARCH("µF",B30)-1))*1000000,"")))</f>
-        <v>56</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="21" t="s">
-        <v>174</v>
+ IF(ISNUMBER(SEARCH("uF",B30)), VALUE(LEFT(B30,SEARCH("uF",B30)-1))*1000000,"")))</f>
+        <v>22</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>947</v>
       </c>
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" s="47" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="20">
+      <c r="A31" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C31" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B31)), VALUE(LEFT(B31,SEARCH("pF",B31)-1)),
  IF(ISNUMBER(SEARCH("nF",B31)), VALUE(LEFT(B31,SEARCH("nF",B31)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B31)), VALUE(LEFT(B31,SEARCH("µF",B31)-1))*1000000,"")))</f>
-        <v>5.6</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="22" t="s">
-        <v>174</v>
+ IF(ISNUMBER(SEARCH("uF",B31)), VALUE(LEFT(B31,SEARCH("uF",B31)-1))*1000000,"")))</f>
+        <v>27</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="51">
+        <v>4000</v>
       </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1">
-      <c r="A32" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="A32" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B32)), VALUE(LEFT(B32,SEARCH("pF",B32)-1)),
  IF(ISNUMBER(SEARCH("nF",B32)), VALUE(LEFT(B32,SEARCH("nF",B32)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B32)), VALUE(LEFT(B32,SEARCH("uF",B32)-1))*1000000,"")))</f>
-        <v>10000</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="51">
-        <v>5000</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B32)), VALUE(LEFT(B32,SEARCH("µF",B32)-1))*1000000,"")))</f>
+        <v>27</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="23">
+        <v>805</v>
+      </c>
+      <c r="F32" s="67"/>
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" s="47" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="C33" s="20">
+      <c r="A33" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C33" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B33)), VALUE(LEFT(B33,SEARCH("pF",B33)-1)),
  IF(ISNUMBER(SEARCH("nF",B33)), VALUE(LEFT(B33,SEARCH("nF",B33)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B33)), VALUE(LEFT(B33,SEARCH("µF",B33)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="23" t="s">
-        <v>178</v>
+ IF(ISNUMBER(SEARCH("uF",B33)), VALUE(LEFT(B33,SEARCH("uF",B33)-1))*1000000,"")))</f>
+        <v>39</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="51">
+        <v>100</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" s="47" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C34" s="20">
+      <c r="A34" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C34" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B34)), VALUE(LEFT(B34,SEARCH("pF",B34)-1)),
  IF(ISNUMBER(SEARCH("nF",B34)), VALUE(LEFT(B34,SEARCH("nF",B34)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B34)), VALUE(LEFT(B34,SEARCH("µF",B34)-1))*1000000,"")))</f>
-        <v>820</v>
-      </c>
-      <c r="D34" s="19"/>
+ IF(ISNUMBER(SEARCH("uF",B34)), VALUE(LEFT(B34,SEARCH("uF",B34)-1))*1000000,"")))</f>
+        <v>39</v>
+      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="F34" s="51">
+        <v>500</v>
       </c>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" s="47" customFormat="1">
-      <c r="A35" s="54" t="s">
-        <v>935</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>944</v>
-      </c>
-      <c r="C35" s="18">
-        <f t="shared" ref="C35:C41" si="1">IF(ISNUMBER(SEARCH("pF",B35)), VALUE(LEFT(B35,SEARCH("pF",B35)-1)),
+      <c r="A35" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C35" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B35)), VALUE(LEFT(B35,SEARCH("pF",B35)-1)),
  IF(ISNUMBER(SEARCH("nF",B35)), VALUE(LEFT(B35,SEARCH("nF",B35)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B35)), VALUE(LEFT(B35,SEARCH("uF",B35)-1))*1000000,"")))</f>
-        <v>4700000</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>950</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="22">
+        <v>603</v>
+      </c>
+      <c r="F35" s="67"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" s="47" customFormat="1">
-      <c r="A36" s="54" t="s">
-        <v>931</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>941</v>
-      </c>
-      <c r="C36" s="18">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>948</v>
-      </c>
+      <c r="A36" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B36)), VALUE(LEFT(B36,SEARCH("pF",B36)-1)),
+ IF(ISNUMBER(SEARCH("nF",B36)), VALUE(LEFT(B36,SEARCH("nF",B36)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B36)), VALUE(LEFT(B36,SEARCH("µF",B36)-1))*1000000,"")))</f>
+        <v>56</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="67"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" s="47" customFormat="1">
-      <c r="A37" s="45" t="s">
-        <v>697</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="C37" s="45">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="42">
-        <v>100</v>
-      </c>
+      <c r="A37" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B37)), VALUE(LEFT(B37,SEARCH("pF",B37)-1)),
+ IF(ISNUMBER(SEARCH("nF",B37)), VALUE(LEFT(B37,SEARCH("nF",B37)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B37)), VALUE(LEFT(B37,SEARCH("uF",B37)-1))*1000000,"")))</f>
+        <v>68</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23">
+        <v>603</v>
+      </c>
+      <c r="F37" s="67"/>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" s="47" customFormat="1">
-      <c r="A38" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="51">
-        <v>5000</v>
-      </c>
+      <c r="A38" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B38)), VALUE(LEFT(B38,SEARCH("pF",B38)-1)),
+ IF(ISNUMBER(SEARCH("nF",B38)), VALUE(LEFT(B38,SEARCH("nF",B38)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B38)), VALUE(LEFT(B38,SEARCH("µF",B38)-1))*1000000,"")))</f>
+        <v>68</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="21">
+        <v>603</v>
+      </c>
+      <c r="F38" s="67"/>
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" s="47" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>815</v>
+        <v>307</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B39)), VALUE(LEFT(B39,SEARCH("pF",B39)-1)),
+ IF(ISNUMBER(SEARCH("nF",B39)), VALUE(LEFT(B39,SEARCH("nF",B39)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B39)), VALUE(LEFT(B39,SEARCH("uF",B39)-1))*1000000,"")))</f>
+        <v>100</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F39" s="51">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" s="47" customFormat="1">
-      <c r="A40" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="C40" s="18">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D40" s="18"/>
+      <c r="A40" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="20">
+        <f>IF(ISNUMBER(SEARCH("pF",B40)), VALUE(LEFT(B40,SEARCH("pF",B40)-1)),
+ IF(ISNUMBER(SEARCH("nF",B40)), VALUE(LEFT(B40,SEARCH("nF",B40)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",B40)), VALUE(LEFT(B40,SEARCH("µF",B40)-1))*1000000,"")))</f>
+        <v>100</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="51">
-        <v>300</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F40" s="67"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" s="47" customFormat="1">
-      <c r="A41" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>179</v>
+      <c r="A41" s="54" t="s">
+        <v>928</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>301</v>
       </c>
       <c r="C41" s="18">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>IF(ISNUMBER(SEARCH("pF",B41)), VALUE(LEFT(B41,SEARCH("pF",B41)-1)),
+ IF(ISNUMBER(SEARCH("nF",B41)), VALUE(LEFT(B41,SEARCH("nF",B41)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B41)), VALUE(LEFT(B41,SEARCH("uF",B41)-1))*1000000,"")))</f>
+        <v>100</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="51">
-        <v>3000</v>
+      <c r="E41" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>947</v>
       </c>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" s="47" customFormat="1">
       <c r="A42" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>518</v>
+        <v>306</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C42" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B42)), VALUE(LEFT(B42,SEARCH("pF",B42)-1)),
  IF(ISNUMBER(SEARCH("nF",B42)), VALUE(LEFT(B42,SEARCH("nF",B42)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B42)), VALUE(LEFT(B42,SEARCH("µF",B42)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="47">
         <v>100</v>
       </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" s="47" customFormat="1">
-      <c r="A43" s="41" t="s">
-        <v>687</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="C43" s="45">
+      <c r="A43" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B43)), VALUE(LEFT(B43,SEARCH("pF",B43)-1)),
  IF(ISNUMBER(SEARCH("nF",B43)), VALUE(LEFT(B43,SEARCH("nF",B43)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B43)), VALUE(LEFT(B43,SEARCH("uF",B43)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="F43" s="42">
-        <v>200</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>999</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" s="47" customFormat="1">
-      <c r="A44" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="C44" s="20">
+      <c r="A44" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B44)), VALUE(LEFT(B44,SEARCH("pF",B44)-1)),
  IF(ISNUMBER(SEARCH("nF",B44)), VALUE(LEFT(B44,SEARCH("nF",B44)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B44)), VALUE(LEFT(B44,SEARCH("µF",B44)-1))*1000000,"")))</f>
-        <v>15000000</v>
-      </c>
-      <c r="D44" s="19"/>
+ IF(ISNUMBER(SEARCH("uF",B44)), VALUE(LEFT(B44,SEARCH("uF",B44)-1))*1000000,"")))</f>
+        <v>100</v>
+      </c>
+      <c r="D44" s="18"/>
       <c r="E44" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="F44" s="51">
+        <v>4000</v>
       </c>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" s="47" customFormat="1">
-      <c r="A45" s="19" t="s">
-        <v>311</v>
+      <c r="A45" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>520</v>
+        <v>14</v>
       </c>
       <c r="C45" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B45)), VALUE(LEFT(B45,SEARCH("pF",B45)-1)),
  IF(ISNUMBER(SEARCH("nF",B45)), VALUE(LEFT(B45,SEARCH("nF",B45)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B45)), VALUE(LEFT(B45,SEARCH("µF",B45)-1))*1000000,"")))</f>
-        <v>33000000</v>
+        <v>100</v>
       </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="22">
-        <v>1206</v>
+      <c r="E45" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" s="47" customFormat="1">
-      <c r="A46" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="C46" s="20">
+      <c r="A46" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B46)), VALUE(LEFT(B46,SEARCH("pF",B46)-1)),
  IF(ISNUMBER(SEARCH("nF",B46)), VALUE(LEFT(B46,SEARCH("nF",B46)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B46)), VALUE(LEFT(B46,SEARCH("µF",B46)-1))*1000000,"")))</f>
-        <v>47000000</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="21">
-        <v>1206</v>
+ IF(ISNUMBER(SEARCH("uF",B46)), VALUE(LEFT(B46,SEARCH("uF",B46)-1))*1000000,"")))</f>
+        <v>100</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="51">
+        <v>5000</v>
       </c>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" s="47" customFormat="1">
       <c r="A47" s="54" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>938</v>
+        <v>301</v>
       </c>
       <c r="C47" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B47)), VALUE(LEFT(B47,SEARCH("pF",B47)-1)),
  IF(ISNUMBER(SEARCH("nF",B47)), VALUE(LEFT(B47,SEARCH("nF",B47)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B47)), VALUE(LEFT(B47,SEARCH("uF",B47)-1))*1000000,"")))</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="54" t="s">
         <v>945</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" s="47" customFormat="1">
-      <c r="A48" s="54" t="s">
-        <v>925</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>939</v>
+      <c r="A48" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="C48" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B48)), VALUE(LEFT(B48,SEARCH("pF",B48)-1)),
  IF(ISNUMBER(SEARCH("nF",B48)), VALUE(LEFT(B48,SEARCH("nF",B48)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B48)), VALUE(LEFT(B48,SEARCH("uF",B48)-1))*1000000,"")))</f>
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>950</v>
+      <c r="E48" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="51">
+        <v>3000</v>
       </c>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" s="47" customFormat="1">
-      <c r="A49" s="54" t="s">
-        <v>928</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>301</v>
+      <c r="A49" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="C49" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B49)), VALUE(LEFT(B49,SEARCH("pF",B49)-1)),
  IF(ISNUMBER(SEARCH("nF",B49)), VALUE(LEFT(B49,SEARCH("nF",B49)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B49)), VALUE(LEFT(B49,SEARCH("uF",B49)-1))*1000000,"")))</f>
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="D49" s="18"/>
-      <c r="E49" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>947</v>
+      <c r="E49" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="51">
+        <v>500</v>
       </c>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" s="47" customFormat="1">
-      <c r="A50" s="54" t="s">
-        <v>929</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>940</v>
+      <c r="A50" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="C50" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B50)), VALUE(LEFT(B50,SEARCH("pF",B50)-1)),
  IF(ISNUMBER(SEARCH("nF",B50)), VALUE(LEFT(B50,SEARCH("nF",B50)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B50)), VALUE(LEFT(B50,SEARCH("uF",B50)-1))*1000000,"")))</f>
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>948</v>
+      <c r="E50" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="51">
+        <v>100</v>
       </c>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" s="47" customFormat="1">
-      <c r="A51" s="54" t="s">
-        <v>932</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>941</v>
-      </c>
-      <c r="C51" s="18">
+      <c r="A51" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B51)), VALUE(LEFT(B51,SEARCH("pF",B51)-1)),
  IF(ISNUMBER(SEARCH("nF",B51)), VALUE(LEFT(B51,SEARCH("nF",B51)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B51)), VALUE(LEFT(B51,SEARCH("uF",B51)-1))*1000000,"")))</f>
-        <v>10000</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>947</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B51)), VALUE(LEFT(B51,SEARCH("µF",B51)-1))*1000000,"")))</f>
+        <v>390</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="67"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" s="47" customFormat="1">
       <c r="A52" s="19" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C52" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B52)), VALUE(LEFT(B52,SEARCH("pF",B52)-1)),
  IF(ISNUMBER(SEARCH("nF",B52)), VALUE(LEFT(B52,SEARCH("nF",B52)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B52)), VALUE(LEFT(B52,SEARCH("µF",B52)-1))*1000000,"")))</f>
-        <v>68</v>
+        <v>500</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="21">
-        <v>603</v>
+      <c r="E52" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7" s="47" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C53" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B53)), VALUE(LEFT(B53,SEARCH("pF",B53)-1)),
  IF(ISNUMBER(SEARCH("nF",B53)), VALUE(LEFT(B53,SEARCH("nF",B53)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B53)), VALUE(LEFT(B53,SEARCH("µF",B53)-1))*1000000,"")))</f>
-        <v>500</v>
+        <v>820</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" s="47" customFormat="1">
-      <c r="A54" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="C54" s="20">
+      <c r="A54" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C54" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B54)), VALUE(LEFT(B54,SEARCH("pF",B54)-1)),
  IF(ISNUMBER(SEARCH("nF",B54)), VALUE(LEFT(B54,SEARCH("nF",B54)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B54)), VALUE(LEFT(B54,SEARCH("uF",B54)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F54" s="51">
-        <v>500</v>
-      </c>
-      <c r="G54" s="20"/>
+        <v>5000</v>
+      </c>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7" s="47" customFormat="1">
-      <c r="A55" s="18" t="s">
-        <v>703</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>704</v>
+      <c r="A55" s="54" t="s">
+        <v>929</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>940</v>
       </c>
       <c r="C55" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B55)), VALUE(LEFT(B55,SEARCH("pF",B55)-1)),
  IF(ISNUMBER(SEARCH("nF",B55)), VALUE(LEFT(B55,SEARCH("nF",B55)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B55)), VALUE(LEFT(B55,SEARCH("uF",B55)-1))*1000000,"")))</f>
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="51">
-        <v>300</v>
+      <c r="E55" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>948</v>
       </c>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" s="47" customFormat="1">
-      <c r="A56" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>524</v>
+      <c r="A56" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>531</v>
       </c>
       <c r="C56" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B56)), VALUE(LEFT(B56,SEARCH("pF",B56)-1)),
  IF(ISNUMBER(SEARCH("nF",B56)), VALUE(LEFT(B56,SEARCH("nF",B56)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B56)), VALUE(LEFT(B56,SEARCH("µF",B56)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="23">
-        <v>1206</v>
+        <v>1000</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7" s="47" customFormat="1">
-      <c r="A57" s="54" t="s">
-        <v>930</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>941</v>
-      </c>
-      <c r="C57" s="18">
+      <c r="A57" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C57" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B57)), VALUE(LEFT(B57,SEARCH("pF",B57)-1)),
  IF(ISNUMBER(SEARCH("nF",B57)), VALUE(LEFT(B57,SEARCH("nF",B57)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B57)), VALUE(LEFT(B57,SEARCH("uF",B57)-1))*1000000,"")))</f>
-        <v>10000</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>950</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B57)), VALUE(LEFT(B57,SEARCH("µF",B57)-1))*1000000,"")))</f>
+        <v>3300</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="67"/>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" s="47" customFormat="1">
-      <c r="A58" s="54" t="s">
-        <v>934</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>943</v>
-      </c>
-      <c r="C58" s="18">
+      <c r="A58" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B58)), VALUE(LEFT(B58,SEARCH("pF",B58)-1)),
  IF(ISNUMBER(SEARCH("nF",B58)), VALUE(LEFT(B58,SEARCH("nF",B58)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B58)), VALUE(LEFT(B58,SEARCH("uF",B58)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>950</v>
-      </c>
-      <c r="G58" s="18"/>
+        <v>10000</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F58" s="42">
+        <v>800</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="59" spans="1:7" s="47" customFormat="1">
-      <c r="A59" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C59" s="20">
+      <c r="A59" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="C59" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B59)), VALUE(LEFT(B59,SEARCH("pF",B59)-1)),
  IF(ISNUMBER(SEARCH("nF",B59)), VALUE(LEFT(B59,SEARCH("nF",B59)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B59)), VALUE(LEFT(B59,SEARCH("µF",B59)-1))*1000000,"")))</f>
-        <v>4700000</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="23" t="s">
+ IF(ISNUMBER(SEARCH("uF",B59)), VALUE(LEFT(B59,SEARCH("uF",B59)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46" t="s">
         <v>174</v>
+      </c>
+      <c r="F59" s="42">
+        <v>200</v>
       </c>
       <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" s="47" customFormat="1">
       <c r="A60" s="18" t="s">
-        <v>842</v>
+        <v>777</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>843</v>
+        <v>778</v>
       </c>
       <c r="C60" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B60)), VALUE(LEFT(B60,SEARCH("pF",B60)-1)),
  IF(ISNUMBER(SEARCH("nF",B60)), VALUE(LEFT(B60,SEARCH("nF",B60)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B60)), VALUE(LEFT(B60,SEARCH("uF",B60)-1))*1000000,"")))</f>
-        <v>4700000</v>
+        <v>10000</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F60" s="51">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7" s="47" customFormat="1">
-      <c r="A61" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>838</v>
+      <c r="A61" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>941</v>
       </c>
       <c r="C61" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B61)), VALUE(LEFT(B61,SEARCH("pF",B61)-1)),
  IF(ISNUMBER(SEARCH("nF",B61)), VALUE(LEFT(B61,SEARCH("nF",B61)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B61)), VALUE(LEFT(B61,SEARCH("uF",B61)-1))*1000000,"")))</f>
-        <v>330</v>
+        <v>10000</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>948</v>
+      </c>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:7" s="47" customFormat="1">
+      <c r="A62" s="54" t="s">
+        <v>932</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="C62" s="18">
+        <f>IF(ISNUMBER(SEARCH("pF",B62)), VALUE(LEFT(B62,SEARCH("pF",B62)-1)),
+ IF(ISNUMBER(SEARCH("nF",B62)), VALUE(LEFT(B62,SEARCH("nF",B62)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B62)), VALUE(LEFT(B62,SEARCH("uF",B62)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>947</v>
+      </c>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" s="47" customFormat="1">
+      <c r="A63" s="54" t="s">
+        <v>930</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="C63" s="18">
+        <f>IF(ISNUMBER(SEARCH("pF",B63)), VALUE(LEFT(B63,SEARCH("pF",B63)-1)),
+ IF(ISNUMBER(SEARCH("nF",B63)), VALUE(LEFT(B63,SEARCH("nF",B63)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B63)), VALUE(LEFT(B63,SEARCH("uF",B63)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>950</v>
+      </c>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7" s="47" customFormat="1">
+      <c r="A64" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C64" s="18">
+        <f>IF(ISNUMBER(SEARCH("pF",B64)), VALUE(LEFT(B64,SEARCH("pF",B64)-1)),
+ IF(ISNUMBER(SEARCH("nF",B64)), VALUE(LEFT(B64,SEARCH("nF",B64)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B64)), VALUE(LEFT(B64,SEARCH("uF",B64)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F64" s="51">
         <v>3000</v>
       </c>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" s="47" customFormat="1">
-      <c r="A62" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="C62" s="20">
-        <f t="shared" ref="C62:C66" si="2">IF(ISNUMBER(SEARCH("pF",B62)), VALUE(LEFT(B62,SEARCH("pF",B62)-1)),
- IF(ISNUMBER(SEARCH("nF",B62)), VALUE(LEFT(B62,SEARCH("nF",B62)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B62)), VALUE(LEFT(B62,SEARCH("µF",B62)-1))*1000000,"")))</f>
-        <v>47000000</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="22">
-        <v>805</v>
-      </c>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" s="47" customFormat="1">
-      <c r="A63" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="20">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" s="47" customFormat="1">
-      <c r="A64" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="C64" s="20">
-        <f t="shared" si="2"/>
-        <v>4700000</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" s="47" customFormat="1">
-      <c r="A65" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="C65" s="20">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="18">
-        <v>402</v>
-      </c>
-      <c r="G65" s="18"/>
+      <c r="A65" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="C65" s="45">
+        <f>IF(ISNUMBER(SEARCH("pF",B65)), VALUE(LEFT(B65,SEARCH("pF",B65)-1)),
+ IF(ISNUMBER(SEARCH("nF",B65)), VALUE(LEFT(B65,SEARCH("nF",B65)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B65)), VALUE(LEFT(B65,SEARCH("uF",B65)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F65" s="42">
+        <v>150</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="66" spans="1:7" s="47" customFormat="1">
-      <c r="A66" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="C66" s="20">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="21">
-        <v>402</v>
+      <c r="A66" s="54" t="s">
+        <v>933</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>942</v>
+      </c>
+      <c r="C66" s="18">
+        <f>IF(ISNUMBER(SEARCH("pF",B66)), VALUE(LEFT(B66,SEARCH("pF",B66)-1)),
+ IF(ISNUMBER(SEARCH("nF",B66)), VALUE(LEFT(B66,SEARCH("nF",B66)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",B66)), VALUE(LEFT(B66,SEARCH("uF",B66)-1))*1000000,"")))</f>
+        <v>22000</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>948</v>
       </c>
       <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" s="47" customFormat="1">
-      <c r="A67" s="41" t="s">
-        <v>995</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="C67" s="45">
+      <c r="A67" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C67" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B67)), VALUE(LEFT(B67,SEARCH("pF",B67)-1)),
  IF(ISNUMBER(SEARCH("nF",B67)), VALUE(LEFT(B67,SEARCH("nF",B67)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B67)), VALUE(LEFT(B67,SEARCH("uF",B67)-1))*1000000,"")))</f>
         <v>100000</v>
       </c>
-      <c r="D67" s="45"/>
-      <c r="E67" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="F67" s="42">
-        <v>300</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>999</v>
-      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="67"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" s="47" customFormat="1">
       <c r="A68" s="18" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>941</v>
+        <v>780</v>
       </c>
       <c r="C68" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B68)), VALUE(LEFT(B68,SEARCH("pF",B68)-1)),
  IF(ISNUMBER(SEARCH("nF",B68)), VALUE(LEFT(B68,SEARCH("nF",B68)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B68)), VALUE(LEFT(B68,SEARCH("uF",B68)-1))*1000000,"")))</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F68" s="51">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1">
       <c r="A69" s="41" t="s">
-        <v>690</v>
+        <v>1001</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>941</v>
+        <v>692</v>
       </c>
       <c r="C69" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B69)), VALUE(LEFT(B69,SEARCH("pF",B69)-1)),
  IF(ISNUMBER(SEARCH("nF",B69)), VALUE(LEFT(B69,SEARCH("nF",B69)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B69)), VALUE(LEFT(B69,SEARCH("uF",B69)-1))*1000000,"")))</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="41" t="s">
         <v>688</v>
       </c>
       <c r="F69" s="42">
-        <v>150</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>1008</v>
+        <v>300</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="47" customFormat="1">
-      <c r="A70" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C70" s="18">
+      <c r="A70" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="C70" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B70)), VALUE(LEFT(B70,SEARCH("pF",B70)-1)),
  IF(ISNUMBER(SEARCH("nF",B70)), VALUE(LEFT(B70,SEARCH("nF",B70)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B70)), VALUE(LEFT(B70,SEARCH("uF",B70)-1))*1000000,"")))</f>
+        <v>100000</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="42">
         <v>100</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="51">
-        <v>1000</v>
-      </c>
       <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" s="47" customFormat="1">
-      <c r="A71" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" s="18">
+      <c r="A71" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C71" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B71)), VALUE(LEFT(B71,SEARCH("pF",B71)-1)),
  IF(ISNUMBER(SEARCH("nF",B71)), VALUE(LEFT(B71,SEARCH("nF",B71)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B71)), VALUE(LEFT(B71,SEARCH("uF",B71)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="51">
-        <v>4000</v>
-      </c>
-      <c r="G71" s="18"/>
+        <v>100000</v>
+      </c>
+      <c r="D71" s="45"/>
+      <c r="E71" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F71" s="42">
+        <v>200</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="72" spans="1:7" s="47" customFormat="1">
-      <c r="A72" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="20">
+      <c r="A72" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C72" s="45">
         <f>IF(ISNUMBER(SEARCH("pF",B72)), VALUE(LEFT(B72,SEARCH("pF",B72)-1)),
  IF(ISNUMBER(SEARCH("nF",B72)), VALUE(LEFT(B72,SEARCH("nF",B72)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B72)), VALUE(LEFT(B72,SEARCH("µF",B72)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="18"/>
+ IF(ISNUMBER(SEARCH("uF",B72)), VALUE(LEFT(B72,SEARCH("uF",B72)-1))*1000000,"")))</f>
+        <v>100000</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F72" s="42">
+        <v>300</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="73" spans="1:7" s="47" customFormat="1">
-      <c r="A73" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C73" s="18">
+      <c r="A73" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B73)), VALUE(LEFT(B73,SEARCH("pF",B73)-1)),
  IF(ISNUMBER(SEARCH("nF",B73)), VALUE(LEFT(B73,SEARCH("nF",B73)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B73)), VALUE(LEFT(B73,SEARCH("uF",B73)-1))*1000000,"")))</f>
-        <v>330</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="21" t="s">
+ IF(ISNUMBER(SEARCH("µF",B73)), VALUE(LEFT(B73,SEARCH("µF",B73)-1))*1000000,"")))</f>
+        <v>100000</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="51">
-        <v>500</v>
-      </c>
+      <c r="F73" s="67"/>
       <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" s="47" customFormat="1">
       <c r="A74" s="18" t="s">
-        <v>839</v>
+        <v>992</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C74" s="18">
+        <v>996</v>
+      </c>
+      <c r="C74" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B74)), VALUE(LEFT(B74,SEARCH("pF",B74)-1)),
  IF(ISNUMBER(SEARCH("nF",B74)), VALUE(LEFT(B74,SEARCH("nF",B74)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B74)), VALUE(LEFT(B74,SEARCH("uF",B74)-1))*1000000,"")))</f>
-        <v>330</v>
+        <v>100000</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F74" s="51">
-        <v>100</v>
-      </c>
-      <c r="G74" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="F74" s="67">
+        <v>1000</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="75" spans="1:7" s="47" customFormat="1">
-      <c r="A75" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="18">
+      <c r="A75" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C75" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B75)), VALUE(LEFT(B75,SEARCH("pF",B75)-1)),
  IF(ISNUMBER(SEARCH("nF",B75)), VALUE(LEFT(B75,SEARCH("nF",B75)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B75)), VALUE(LEFT(B75,SEARCH("uF",B75)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="21" t="s">
+ IF(ISNUMBER(SEARCH("µF",B75)), VALUE(LEFT(B75,SEARCH("µF",B75)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F75" s="51">
-        <v>5000</v>
-      </c>
+      <c r="F75" s="67"/>
       <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" s="47" customFormat="1">
       <c r="A76" s="20" t="s">
-        <v>333</v>
+        <v>703</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>527</v>
+        <v>704</v>
       </c>
       <c r="C76" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B76)), VALUE(LEFT(B76,SEARCH("pF",B76)-1)),
  IF(ISNUMBER(SEARCH("nF",B76)), VALUE(LEFT(B76,SEARCH("nF",B76)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B76)), VALUE(LEFT(B76,SEARCH("µF",B76)-1))*1000000,"")))</f>
-        <v>27</v>
+ IF(ISNUMBER(SEARCH("uF",B76)), VALUE(LEFT(B76,SEARCH("uF",B76)-1))*1000000,"")))</f>
+        <v>1000000</v>
       </c>
       <c r="D76" s="20"/>
-      <c r="E76" s="23">
-        <v>805</v>
-      </c>
-      <c r="G76" s="18"/>
+      <c r="E76" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="51">
+        <v>500</v>
+      </c>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:7" s="47" customFormat="1">
-      <c r="A77" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="C77" s="20">
+      <c r="A77" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C77" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B77)), VALUE(LEFT(B77,SEARCH("pF",B77)-1)),
  IF(ISNUMBER(SEARCH("nF",B77)), VALUE(LEFT(B77,SEARCH("nF",B77)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B77)), VALUE(LEFT(B77,SEARCH("µF",B77)-1))*1000000,"")))</f>
-        <v>390</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="22" t="s">
-        <v>178</v>
+ IF(ISNUMBER(SEARCH("uF",B77)), VALUE(LEFT(B77,SEARCH("uF",B77)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="51">
+        <v>300</v>
       </c>
       <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" s="47" customFormat="1">
-      <c r="A78" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="C78" s="20">
+      <c r="A78" s="54" t="s">
+        <v>934</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>943</v>
+      </c>
+      <c r="C78" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B78)), VALUE(LEFT(B78,SEARCH("pF",B78)-1)),
  IF(ISNUMBER(SEARCH("nF",B78)), VALUE(LEFT(B78,SEARCH("nF",B78)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B78)), VALUE(LEFT(B78,SEARCH("µF",B78)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="21" t="s">
-        <v>529</v>
+ IF(ISNUMBER(SEARCH("uF",B78)), VALUE(LEFT(B78,SEARCH("uF",B78)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>950</v>
       </c>
       <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" s="47" customFormat="1">
-      <c r="A79" s="54" t="s">
-        <v>933</v>
-      </c>
-      <c r="B79" s="54" t="s">
-        <v>942</v>
+      <c r="A79" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>774</v>
       </c>
       <c r="C79" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B79)), VALUE(LEFT(B79,SEARCH("pF",B79)-1)),
  IF(ISNUMBER(SEARCH("nF",B79)), VALUE(LEFT(B79,SEARCH("nF",B79)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B79)), VALUE(LEFT(B79,SEARCH("uF",B79)-1))*1000000,"")))</f>
-        <v>22000</v>
+        <v>1000000</v>
       </c>
       <c r="D79" s="18"/>
-      <c r="E79" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>948</v>
+      <c r="E79" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="51">
+        <v>1000</v>
       </c>
       <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" s="47" customFormat="1">
-      <c r="A80" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>518</v>
+      <c r="A80" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>943</v>
       </c>
       <c r="C80" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B80)), VALUE(LEFT(B80,SEARCH("pF",B80)-1)),
  IF(ISNUMBER(SEARCH("nF",B80)), VALUE(LEFT(B80,SEARCH("nF",B80)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B80)), VALUE(LEFT(B80,SEARCH("µF",B80)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="G80" s="18"/>
+ IF(ISNUMBER(SEARCH("uF",B80)), VALUE(LEFT(B80,SEARCH("uF",B80)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" s="47">
+        <v>300</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="81" spans="1:7" s="47" customFormat="1">
-      <c r="A81" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>518</v>
+      <c r="A81" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>943</v>
       </c>
       <c r="C81" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B81)), VALUE(LEFT(B81,SEARCH("pF",B81)-1)),
  IF(ISNUMBER(SEARCH("nF",B81)), VALUE(LEFT(B81,SEARCH("nF",B81)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B81)), VALUE(LEFT(B81,SEARCH("µF",B81)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="22">
-        <v>1206</v>
-      </c>
-      <c r="G81" s="18"/>
+ IF(ISNUMBER(SEARCH("uF",B81)), VALUE(LEFT(B81,SEARCH("uF",B81)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="47">
+        <v>300</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="82" spans="1:7" s="47" customFormat="1">
-      <c r="A82" s="54" t="s">
-        <v>927</v>
-      </c>
-      <c r="B82" s="54" t="s">
-        <v>301</v>
+      <c r="A82" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>771</v>
       </c>
       <c r="C82" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B82)), VALUE(LEFT(B82,SEARCH("pF",B82)-1)),
  IF(ISNUMBER(SEARCH("nF",B82)), VALUE(LEFT(B82,SEARCH("nF",B82)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B82)), VALUE(LEFT(B82,SEARCH("uF",B82)-1))*1000000,"")))</f>
-        <v>100</v>
+        <v>2200000</v>
       </c>
       <c r="D82" s="18"/>
-      <c r="E82" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F82" s="54" t="s">
-        <v>951</v>
+      <c r="E82" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="51">
+        <v>1000</v>
       </c>
       <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" s="47" customFormat="1">
-      <c r="A83" s="54" t="s">
-        <v>926</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="18">
+      <c r="A83" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="C83" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B83)), VALUE(LEFT(B83,SEARCH("pF",B83)-1)),
  IF(ISNUMBER(SEARCH("nF",B83)), VALUE(LEFT(B83,SEARCH("nF",B83)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B83)), VALUE(LEFT(B83,SEARCH("uF",B83)-1))*1000000,"")))</f>
-        <v>22</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>947</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B83)), VALUE(LEFT(B83,SEARCH("µF",B83)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="67"/>
       <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" s="47" customFormat="1">
-      <c r="A84" s="54" t="s">
-        <v>922</v>
-      </c>
-      <c r="B84" s="54" t="s">
-        <v>937</v>
+      <c r="A84" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>771</v>
       </c>
       <c r="C84" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B84)), VALUE(LEFT(B84,SEARCH("pF",B84)-1)),
  IF(ISNUMBER(SEARCH("nF",B84)), VALUE(LEFT(B84,SEARCH("nF",B84)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B84)), VALUE(LEFT(B84,SEARCH("uF",B84)-1))*1000000,"")))</f>
-        <v>8</v>
+        <v>2200000</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="54" t="s">
-        <v>945</v>
-      </c>
-      <c r="F84" s="54" t="s">
-        <v>948</v>
+      <c r="E84" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="51">
+        <v>1000</v>
       </c>
       <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7" s="47" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C85" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B85)), VALUE(LEFT(B85,SEARCH("pF",B85)-1)),
  IF(ISNUMBER(SEARCH("nF",B85)), VALUE(LEFT(B85,SEARCH("nF",B85)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B85)), VALUE(LEFT(B85,SEARCH("µF",B85)-1))*1000000,"")))</f>
-        <v>1000</v>
+        <v>2200000</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7" s="47" customFormat="1">
-      <c r="A86" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>818</v>
+      <c r="A86" s="54" t="s">
+        <v>935</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>944</v>
       </c>
       <c r="C86" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B86)), VALUE(LEFT(B86,SEARCH("pF",B86)-1)),
  IF(ISNUMBER(SEARCH("nF",B86)), VALUE(LEFT(B86,SEARCH("nF",B86)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B86)), VALUE(LEFT(B86,SEARCH("uF",B86)-1))*1000000,"")))</f>
-        <v>39</v>
+        <v>4700000</v>
       </c>
       <c r="D86" s="18"/>
-      <c r="E86" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F86" s="51">
-        <v>500</v>
+      <c r="E86" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="F86" s="54" t="s">
+        <v>950</v>
       </c>
       <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" s="47" customFormat="1">
-      <c r="A87" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>532</v>
+      <c r="A87" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="C87" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B87)), VALUE(LEFT(B87,SEARCH("pF",B87)-1)),
  IF(ISNUMBER(SEARCH("nF",B87)), VALUE(LEFT(B87,SEARCH("nF",B87)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B87)), VALUE(LEFT(B87,SEARCH("µF",B87)-1))*1000000,"")))</f>
-        <v>2200000</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="21" t="s">
+        <v>4700000</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="23" t="s">
         <v>174</v>
       </c>
       <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" s="47" customFormat="1">
-      <c r="A88" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C88" s="20">
+      <c r="A88" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C88" s="18">
         <f>IF(ISNUMBER(SEARCH("pF",B88)), VALUE(LEFT(B88,SEARCH("pF",B88)-1)),
  IF(ISNUMBER(SEARCH("nF",B88)), VALUE(LEFT(B88,SEARCH("nF",B88)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B88)), VALUE(LEFT(B88,SEARCH("µF",B88)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="22" t="s">
+ IF(ISNUMBER(SEARCH("uF",B88)), VALUE(LEFT(B88,SEARCH("uF",B88)-1))*1000000,"")))</f>
+        <v>4700000</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="21" t="s">
         <v>174</v>
       </c>
+      <c r="F88" s="51">
+        <v>300</v>
+      </c>
       <c r="G88" s="18"/>
     </row>
     <row r="89" spans="1:7" s="47" customFormat="1">
-      <c r="A89" s="20" t="s">
-        <v>324</v>
+      <c r="A89" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C89" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B89)), VALUE(LEFT(B89,SEARCH("pF",B89)-1)),
  IF(ISNUMBER(SEARCH("nF",B89)), VALUE(LEFT(B89,SEARCH("nF",B89)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B89)), VALUE(LEFT(B89,SEARCH("µF",B89)-1))*1000000,"")))</f>
-        <v>3300</v>
+        <v>4700000</v>
       </c>
       <c r="D89" s="19"/>
-      <c r="E89" s="22" t="s">
-        <v>178</v>
+      <c r="E89" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" s="47" customFormat="1">
-      <c r="A90" s="20" t="s">
-        <v>319</v>
+      <c r="A90" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C90" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B90)), VALUE(LEFT(B90,SEARCH("pF",B90)-1)),
  IF(ISNUMBER(SEARCH("nF",B90)), VALUE(LEFT(B90,SEARCH("nF",B90)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B90)), VALUE(LEFT(B90,SEARCH("µF",B90)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="22" t="s">
-        <v>178</v>
+        <v>10000000</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" s="47">
+        <v>100</v>
       </c>
       <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7" s="47" customFormat="1">
-      <c r="A91" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C91" s="18">
+      <c r="A91" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C91" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B91)), VALUE(LEFT(B91,SEARCH("pF",B91)-1)),
  IF(ISNUMBER(SEARCH("nF",B91)), VALUE(LEFT(B91,SEARCH("nF",B91)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B91)), VALUE(LEFT(B91,SEARCH("uF",B91)-1))*1000000,"")))</f>
-        <v>2200000</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F91" s="51">
-        <v>1000</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B91)), VALUE(LEFT(B91,SEARCH("µF",B91)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="F91" s="67"/>
       <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7" s="47" customFormat="1">
-      <c r="A92" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="C92" s="18">
+      <c r="A92" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C92" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B92)), VALUE(LEFT(B92,SEARCH("pF",B92)-1)),
  IF(ISNUMBER(SEARCH("nF",B92)), VALUE(LEFT(B92,SEARCH("nF",B92)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B92)), VALUE(LEFT(B92,SEARCH("uF",B92)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F92" s="51">
-        <v>1000</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B92)), VALUE(LEFT(B92,SEARCH("µF",B92)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="22">
+        <v>1206</v>
+      </c>
+      <c r="F92" s="67"/>
       <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" s="47" customFormat="1">
       <c r="A93" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>524</v>
+        <v>699</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="C93" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B93)), VALUE(LEFT(B93,SEARCH("pF",B93)-1)),
  IF(ISNUMBER(SEARCH("nF",B93)), VALUE(LEFT(B93,SEARCH("nF",B93)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B93)), VALUE(LEFT(B93,SEARCH("µF",B93)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="22">
-        <v>1210</v>
-      </c>
-      <c r="G93" s="18"/>
+ IF(ISNUMBER(SEARCH("uF",B93)), VALUE(LEFT(B93,SEARCH("uF",B93)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="51">
+        <v>200</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="94" spans="1:7" s="47" customFormat="1">
-      <c r="A94" s="20" t="s">
-        <v>402</v>
+      <c r="A94" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C94" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B94)), VALUE(LEFT(B94,SEARCH("pF",B94)-1)),
  IF(ISNUMBER(SEARCH("nF",B94)), VALUE(LEFT(B94,SEARCH("nF",B94)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B94)), VALUE(LEFT(B94,SEARCH("µF",B94)-1))*1000000,"")))</f>
-        <v>2200000</v>
+        <v>15000000</v>
       </c>
       <c r="D94" s="19"/>
-      <c r="E94" s="22" t="s">
-        <v>174</v>
+      <c r="E94" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="G94" s="18"/>
     </row>
     <row r="95" spans="1:7" s="47" customFormat="1">
-      <c r="A95" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>534</v>
+      <c r="A95" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="C95" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B95)), VALUE(LEFT(B95,SEARCH("pF",B95)-1)),
  IF(ISNUMBER(SEARCH("nF",B95)), VALUE(LEFT(B95,SEARCH("nF",B95)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B95)), VALUE(LEFT(B95,SEARCH("µF",B95)-1))*1000000,"")))</f>
-        <v>0.1</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="21" t="s">
-        <v>691</v>
+        <v>22000000</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="23">
+        <v>1206</v>
       </c>
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7" s="47" customFormat="1">
-      <c r="A96" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>9</v>
+      <c r="A96" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="C96" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B96)), VALUE(LEFT(B96,SEARCH("pF",B96)-1)),
  IF(ISNUMBER(SEARCH("nF",B96)), VALUE(LEFT(B96,SEARCH("nF",B96)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B96)), VALUE(LEFT(B96,SEARCH("uF",B96)-1))*1000000,"")))</f>
-        <v>220000000</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>177</v>
+ IF(ISNUMBER(SEARCH("µF",B96)), VALUE(LEFT(B96,SEARCH("µF",B96)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="21" t="s">
+        <v>529</v>
       </c>
       <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7" s="47" customFormat="1">
       <c r="A97" s="20" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C97" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B97)), VALUE(LEFT(B97,SEARCH("pF",B97)-1)),
  IF(ISNUMBER(SEARCH("nF",B97)), VALUE(LEFT(B97,SEARCH("nF",B97)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B97)), VALUE(LEFT(B97,SEARCH("µF",B97)-1))*1000000,"")))</f>
-        <v>100000000</v>
+        <v>22000000</v>
       </c>
       <c r="D97" s="19"/>
-      <c r="E97" s="21" t="s">
-        <v>535</v>
+      <c r="E97" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" s="47" customFormat="1">
       <c r="A98" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>700</v>
+        <v>312</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="C98" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B98)), VALUE(LEFT(B98,SEARCH("pF",B98)-1)),
  IF(ISNUMBER(SEARCH("nF",B98)), VALUE(LEFT(B98,SEARCH("nF",B98)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B98)), VALUE(LEFT(B98,SEARCH("uF",B98)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F98" s="51">
-        <v>200</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>994</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B98)), VALUE(LEFT(B98,SEARCH("µF",B98)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="22">
+        <v>1210</v>
+      </c>
+      <c r="F98" s="67"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" s="47" customFormat="1">
       <c r="A99" s="20" t="s">
@@ -12076,119 +12227,105 @@
       <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" s="47" customFormat="1">
-      <c r="A100" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>538</v>
+      <c r="A100" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>520</v>
       </c>
       <c r="C100" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B100)), VALUE(LEFT(B100,SEARCH("pF",B100)-1)),
  IF(ISNUMBER(SEARCH("nF",B100)), VALUE(LEFT(B100,SEARCH("nF",B100)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B100)), VALUE(LEFT(B100,SEARCH("µF",B100)-1))*1000000,"")))</f>
-        <v>1</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="18" t="s">
-        <v>537</v>
+        <v>33000000</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="22">
+        <v>1206</v>
       </c>
       <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="18" t="s">
-        <v>991</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>936</v>
+      <c r="A101" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="C101" s="20">
-        <f t="shared" ref="C101" si="3">IF(ISNUMBER(SEARCH("pF",B101)), VALUE(LEFT(B101,SEARCH("pF",B101)-1)),
+        <f>IF(ISNUMBER(SEARCH("pF",B101)), VALUE(LEFT(B101,SEARCH("pF",B101)-1)),
  IF(ISNUMBER(SEARCH("nF",B101)), VALUE(LEFT(B101,SEARCH("nF",B101)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B101)), VALUE(LEFT(B101,SEARCH("µF",B101)-1))*1000000,"")))</f>
-        <v>2</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F101" s="49">
-        <v>50</v>
-      </c>
+        <v>47000000</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="21">
+        <v>1206</v>
+      </c>
+      <c r="F101" s="49"/>
       <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>996</v>
+      <c r="A102" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="C102" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B102)), VALUE(LEFT(B102,SEARCH("pF",B102)-1)),
  IF(ISNUMBER(SEARCH("nF",B102)), VALUE(LEFT(B102,SEARCH("nF",B102)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B102)), VALUE(LEFT(B102,SEARCH("uF",B102)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F102" s="49">
-        <v>1000</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>994</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B102)), VALUE(LEFT(B102,SEARCH("µF",B102)-1))*1000000,"")))</f>
+        <v>47000000</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="22">
+        <v>805</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>943</v>
+      <c r="A103" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>536</v>
       </c>
       <c r="C103" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B103)), VALUE(LEFT(B103,SEARCH("pF",B103)-1)),
  IF(ISNUMBER(SEARCH("nF",B103)), VALUE(LEFT(B103,SEARCH("nF",B103)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B103)), VALUE(LEFT(B103,SEARCH("uF",B103)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>1003</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",B103)), VALUE(LEFT(B103,SEARCH("µF",B103)-1))*1000000,"")))</f>
+        <v>100000000</v>
+      </c>
+      <c r="D103" s="19"/>
       <c r="E103" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F103" s="57">
-        <v>300</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>994</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="F103" s="57"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>943</v>
+      <c r="A104" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="C104" s="20">
         <f>IF(ISNUMBER(SEARCH("pF",B104)), VALUE(LEFT(B104,SEARCH("pF",B104)-1)),
  IF(ISNUMBER(SEARCH("nF",B104)), VALUE(LEFT(B104,SEARCH("nF",B104)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B104)), VALUE(LEFT(B104,SEARCH("uF",B104)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F104" s="57">
-        <v>300</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>994</v>
-      </c>
+        <v>220000000</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" s="57"/>
+      <c r="G104" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12216,12 +12353,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
@@ -12777,18 +12914,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F56564-447C-4AC0-9A0C-F03B4328A463}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -12798,20 +12936,25 @@
       <c r="C1" s="12" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="12" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>562</v>
       </c>
@@ -12819,8 +12962,9 @@
         <v>15</v>
       </c>
       <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>615</v>
       </c>
@@ -12828,8 +12972,9 @@
         <v>10</v>
       </c>
       <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>617</v>
       </c>
@@ -12837,8 +12982,9 @@
         <v>6</v>
       </c>
       <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>618</v>
       </c>
@@ -12846,8 +12992,9 @@
         <v>629</v>
       </c>
       <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>619</v>
       </c>
@@ -12855,8 +13002,9 @@
         <v>624</v>
       </c>
       <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>620</v>
       </c>
@@ -12864,8 +13012,9 @@
         <v>3</v>
       </c>
       <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>621</v>
       </c>
@@ -12873,8 +13022,9 @@
         <v>14</v>
       </c>
       <c r="C10" s="34"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>622</v>
       </c>
@@ -12882,8 +13032,9 @@
         <v>10</v>
       </c>
       <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>615</v>
       </c>
@@ -12891,8 +13042,9 @@
         <v>12</v>
       </c>
       <c r="C12" s="34"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>623</v>
       </c>
@@ -12900,8 +13052,9 @@
         <v>100</v>
       </c>
       <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>623</v>
       </c>
@@ -12909,8 +13062,9 @@
         <v>20</v>
       </c>
       <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>625</v>
       </c>
@@ -12918,8 +13072,9 @@
         <v>4</v>
       </c>
       <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>626</v>
       </c>
@@ -12927,8 +13082,9 @@
         <v>10</v>
       </c>
       <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>627</v>
       </c>
@@ -12936,8 +13092,9 @@
         <v>12</v>
       </c>
       <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>628</v>
       </c>
@@ -12945,8 +13102,9 @@
         <v>8</v>
       </c>
       <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>627</v>
       </c>
@@ -12954,8 +13112,9 @@
         <v>30</v>
       </c>
       <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>630</v>
       </c>
@@ -12963,8 +13122,9 @@
         <v>15</v>
       </c>
       <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>631</v>
       </c>
@@ -12972,8 +13132,9 @@
         <v>36</v>
       </c>
       <c r="C21" s="34"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -12981,8 +13142,9 @@
         <v>8</v>
       </c>
       <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>633</v>
       </c>
@@ -12990,8 +13152,9 @@
         <v>8</v>
       </c>
       <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>617</v>
       </c>
@@ -12999,8 +13162,9 @@
         <v>9</v>
       </c>
       <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>615</v>
       </c>
@@ -13008,8 +13172,9 @@
         <v>20</v>
       </c>
       <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>625</v>
       </c>
@@ -13017,8 +13182,9 @@
         <v>6</v>
       </c>
       <c r="C26" s="34"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>633</v>
       </c>
@@ -13026,8 +13192,9 @@
         <v>4</v>
       </c>
       <c r="C27" s="34"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>620</v>
       </c>
@@ -13035,8 +13202,9 @@
         <v>20</v>
       </c>
       <c r="C28" s="34"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>634</v>
       </c>
@@ -13044,8 +13212,11 @@
         <v>8</v>
       </c>
       <c r="C29" s="34"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="34" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>617</v>
       </c>
@@ -13053,8 +13224,9 @@
         <v>20</v>
       </c>
       <c r="C30" s="34"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>635</v>
       </c>
@@ -13062,8 +13234,9 @@
         <v>7</v>
       </c>
       <c r="C31" s="34"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>636</v>
       </c>
@@ -13071,8 +13244,9 @@
         <v>20</v>
       </c>
       <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>637</v>
       </c>
@@ -13080,8 +13254,9 @@
         <v>20</v>
       </c>
       <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>638</v>
       </c>
@@ -13089,8 +13264,9 @@
         <v>15</v>
       </c>
       <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>639</v>
       </c>
@@ -13098,8 +13274,9 @@
         <v>8</v>
       </c>
       <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>640</v>
       </c>
@@ -13107,8 +13284,9 @@
         <v>100</v>
       </c>
       <c r="C36" s="34"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>636</v>
       </c>
@@ -13116,8 +13294,9 @@
         <v>10</v>
       </c>
       <c r="C37" s="34"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>643</v>
       </c>
@@ -13125,8 +13304,9 @@
         <v>650</v>
       </c>
       <c r="C38" s="34"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -13134,8 +13314,9 @@
         <v>9</v>
       </c>
       <c r="C39" s="34"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>645</v>
       </c>
@@ -13143,8 +13324,9 @@
         <v>200</v>
       </c>
       <c r="C40" s="34"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>646</v>
       </c>
@@ -13152,8 +13334,9 @@
         <v>7</v>
       </c>
       <c r="C41" s="34"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>647</v>
       </c>
@@ -13161,8 +13344,9 @@
         <v>649</v>
       </c>
       <c r="C42" s="34"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>648</v>
       </c>
@@ -13170,8 +13354,9 @@
         <v>7</v>
       </c>
       <c r="C43" s="34"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>646</v>
       </c>
@@ -13179,8 +13364,9 @@
         <v>10</v>
       </c>
       <c r="C44" s="34"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>651</v>
       </c>
@@ -13188,8 +13374,9 @@
         <v>30</v>
       </c>
       <c r="C45" s="34"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="34" t="s">
         <v>656</v>
       </c>
@@ -13197,8 +13384,9 @@
         <v>45</v>
       </c>
       <c r="C46" s="34"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="34" t="s">
         <v>657</v>
       </c>
@@ -13206,8 +13394,9 @@
         <v>6</v>
       </c>
       <c r="C47" s="34"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="34"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="34" t="s">
         <v>658</v>
       </c>
@@ -13215,8 +13404,9 @@
         <v>44</v>
       </c>
       <c r="C48" s="34"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="34" t="s">
         <v>659</v>
       </c>
@@ -13224,8 +13414,9 @@
         <v>45</v>
       </c>
       <c r="C49" s="34"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="34" t="s">
         <v>660</v>
       </c>
@@ -13233,8 +13424,9 @@
         <v>118</v>
       </c>
       <c r="C50" s="34"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="34" t="s">
         <v>661</v>
       </c>
@@ -13242,8 +13434,9 @@
         <v>7</v>
       </c>
       <c r="C51" s="34"/>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="34" t="s">
         <v>662</v>
       </c>
@@ -13251,8 +13444,9 @@
         <v>100</v>
       </c>
       <c r="C52" s="34"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="34" t="s">
         <v>663</v>
       </c>
@@ -13260,8 +13454,9 @@
         <v>18</v>
       </c>
       <c r="C53" s="34"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="34" t="s">
         <v>664</v>
       </c>
@@ -13269,8 +13464,9 @@
         <v>32</v>
       </c>
       <c r="C54" s="34"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="34" t="s">
         <v>665</v>
       </c>
@@ -13278,8 +13474,9 @@
         <v>22</v>
       </c>
       <c r="C55" s="34"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="34" t="s">
         <v>666</v>
       </c>
@@ -13287,8 +13484,9 @@
         <v>18</v>
       </c>
       <c r="C56" s="34"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="34" t="s">
         <v>667</v>
       </c>
@@ -13296,8 +13494,9 @@
         <v>18</v>
       </c>
       <c r="C57" s="34"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="34" t="s">
         <v>668</v>
       </c>
@@ -13305,8 +13504,9 @@
         <v>7</v>
       </c>
       <c r="C58" s="34"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="34" t="s">
         <v>669</v>
       </c>
@@ -13314,8 +13514,9 @@
         <v>13</v>
       </c>
       <c r="C59" s="34"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="34" t="s">
         <v>670</v>
       </c>
@@ -13323,8 +13524,9 @@
         <v>17</v>
       </c>
       <c r="C60" s="34"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="34"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="34" t="s">
         <v>671</v>
       </c>
@@ -13332,8 +13534,9 @@
         <v>20</v>
       </c>
       <c r="C61" s="34"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="34"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="34" t="s">
         <v>672</v>
       </c>
@@ -13341,8 +13544,9 @@
         <v>8</v>
       </c>
       <c r="C62" s="34"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="34"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="34" t="s">
         <v>673</v>
       </c>
@@ -13350,8 +13554,9 @@
         <v>2</v>
       </c>
       <c r="C63" s="34"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="34"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="34" t="s">
         <v>674</v>
       </c>
@@ -13359,8 +13564,9 @@
         <v>30</v>
       </c>
       <c r="C64" s="34"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="34"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="34" t="s">
         <v>675</v>
       </c>
@@ -13368,8 +13574,9 @@
         <v>18</v>
       </c>
       <c r="C65" s="34"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="34"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="34" t="s">
         <v>676</v>
       </c>
@@ -13377,8 +13584,9 @@
         <v>78</v>
       </c>
       <c r="C66" s="34"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="34"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="34" t="s">
         <v>677</v>
       </c>
@@ -13386,8 +13594,9 @@
         <v>10</v>
       </c>
       <c r="C67" s="34"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="34"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
         <v>678</v>
       </c>
@@ -13395,8 +13604,9 @@
         <v>12</v>
       </c>
       <c r="C68" s="34"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="34"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
         <v>679</v>
       </c>
@@ -13404,8 +13614,9 @@
         <v>14</v>
       </c>
       <c r="C69" s="34"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="34"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="34" t="s">
         <v>680</v>
       </c>
@@ -13413,8 +13624,9 @@
         <v>1</v>
       </c>
       <c r="C70" s="34"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="34"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="34" t="s">
         <v>681</v>
       </c>
@@ -13424,8 +13636,9 @@
       <c r="C71" s="34" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
         <v>682</v>
       </c>
@@ -13435,8 +13648,9 @@
       <c r="C72" s="34" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="34"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="34" t="s">
         <v>683</v>
       </c>
@@ -13444,8 +13658,9 @@
         <v>21</v>
       </c>
       <c r="C73" s="34"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="34" t="s">
         <v>684</v>
       </c>
@@ -13453,8 +13668,9 @@
         <v>7</v>
       </c>
       <c r="C74" s="34"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="34" t="s">
         <v>685</v>
       </c>
@@ -13462,8 +13678,9 @@
         <v>31</v>
       </c>
       <c r="C75" s="34"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="34"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="34" t="s">
         <v>686</v>
       </c>
@@ -13473,8 +13690,9 @@
       <c r="C76" s="34" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="34"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="34" t="s">
         <v>960</v>
       </c>
@@ -13482,8 +13700,9 @@
         <v>2</v>
       </c>
       <c r="C77" s="34"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="34"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="34" t="s">
         <v>961</v>
       </c>
@@ -13491,6 +13710,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13504,8 +13724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EB4CFE-179B-4419-8073-6DED6B7B165A}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13514,7 +13734,7 @@
     <col min="2" max="2" width="19.09765625" style="33" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13528,10 +13748,10 @@
         <v>540</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13544,8 +13764,8 @@
       <c r="C2" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="47" t="s">
@@ -13557,8 +13777,8 @@
       <c r="C3" s="47">
         <v>20</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
@@ -13568,8 +13788,8 @@
       <c r="C4" s="47">
         <v>0</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="47" t="s">
@@ -13581,8 +13801,8 @@
       <c r="C5" s="47">
         <v>9</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="47" t="s">
@@ -13592,10 +13812,10 @@
       <c r="C6" s="47">
         <v>30</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="47" t="s">
@@ -13607,8 +13827,8 @@
       <c r="C7" s="47">
         <v>11</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="47" t="s">
@@ -13618,8 +13838,8 @@
       <c r="C8" s="47">
         <v>20</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="47" t="s">
@@ -13629,8 +13849,8 @@
       <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="47" t="s">
@@ -13640,8 +13860,8 @@
       <c r="C10" s="47">
         <v>20</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="47" t="s">
@@ -13651,8 +13871,8 @@
       <c r="C11" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="47" t="s">
@@ -13662,8 +13882,8 @@
       <c r="C12" s="47">
         <v>2</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="47" t="s">
@@ -13673,8 +13893,8 @@
       <c r="C13" s="47">
         <v>5</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="47" t="s">
@@ -13684,8 +13904,8 @@
       <c r="C14" s="47">
         <v>4</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="47" t="s">
@@ -13695,8 +13915,8 @@
       <c r="C15" s="47">
         <v>40</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="47" t="s">
@@ -13706,8 +13926,8 @@
       <c r="C16" s="47">
         <v>9</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="47" t="s">
@@ -13719,10 +13939,10 @@
       <c r="C17" s="47">
         <v>8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="47" t="s">
@@ -13732,8 +13952,8 @@
       <c r="C18" s="47">
         <v>43</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="47" t="s">
@@ -13743,8 +13963,8 @@
       <c r="C19" s="47">
         <v>1</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="47" t="s">
@@ -13754,8 +13974,8 @@
       <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="47" t="s">
@@ -13765,8 +13985,8 @@
       <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="47" t="s">
@@ -13776,8 +13996,8 @@
       <c r="C22" s="47">
         <v>1</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="47" t="s">
@@ -13787,8 +14007,8 @@
       <c r="C23" s="47">
         <v>5</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="47" t="s">
@@ -13798,8 +14018,8 @@
       <c r="C24" s="47">
         <v>0</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="47" t="s">
@@ -13809,8 +14029,8 @@
       <c r="C25" s="47">
         <v>5</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="47" t="s">
@@ -13820,8 +14040,8 @@
       <c r="C26" s="47">
         <v>4</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="47" t="s">
@@ -13831,8 +14051,8 @@
       <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="47" t="s">
@@ -13842,8 +14062,8 @@
       <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="47" t="s">
@@ -13853,8 +14073,8 @@
       <c r="C29" s="47">
         <v>18</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="47" t="s">
@@ -13864,8 +14084,8 @@
       <c r="C30" s="47">
         <v>4</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="47" t="s">
@@ -13875,8 +14095,8 @@
       <c r="C31" s="47">
         <v>10</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="47" t="s">
@@ -13886,8 +14106,8 @@
       <c r="C32" s="47">
         <v>2</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="47" t="s">
@@ -13899,8 +14119,8 @@
       <c r="C33" s="47">
         <v>15</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="47" t="s">
@@ -13912,8 +14132,8 @@
       <c r="C34" s="47">
         <v>3</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="47" t="s">
@@ -13925,8 +14145,8 @@
       <c r="C35" s="47">
         <v>5</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="47" t="s">
@@ -13936,8 +14156,8 @@
       <c r="C36" s="47">
         <v>2</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="47" t="s">
@@ -13947,10 +14167,10 @@
       <c r="C37" s="47">
         <v>15</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="47" t="s">
@@ -13962,8 +14182,8 @@
       <c r="C38" s="47">
         <v>11</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="47" t="s">
@@ -13975,8 +14195,8 @@
       <c r="C39" s="47">
         <v>3</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="47" t="s">
@@ -13986,8 +14206,8 @@
       <c r="C40" s="47">
         <v>5</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="29" t="s">
@@ -13997,8 +14217,8 @@
       <c r="C41" s="47">
         <v>5</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="29" t="s">
@@ -14008,8 +14228,8 @@
       <c r="C42" s="47">
         <v>120</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="29" t="s">
@@ -14019,8 +14239,8 @@
       <c r="C43" s="29">
         <v>41</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="29" t="s">
@@ -14030,8 +14250,8 @@
       <c r="C44" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="29" t="s">
@@ -14041,8 +14261,8 @@
       <c r="C45" s="29">
         <v>4</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="29" t="s">
@@ -14052,8 +14272,8 @@
       <c r="C46" s="29">
         <v>18</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="29" t="s">
@@ -14065,8 +14285,8 @@
       <c r="C47" s="29">
         <v>115</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="29" t="s">
@@ -14076,8 +14296,8 @@
       <c r="C48" s="29">
         <v>2</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="29" t="s">
@@ -14087,8 +14307,8 @@
       <c r="C49" s="29">
         <v>20</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="29" t="s">
@@ -14098,8 +14318,8 @@
       <c r="C50" s="29">
         <v>24</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="29" t="s">
@@ -14109,8 +14329,8 @@
       <c r="C51" s="29">
         <v>15</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="62"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="29" t="s">
@@ -14120,8 +14340,8 @@
       <c r="C52" s="29">
         <v>18</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="29" t="s">
@@ -14131,8 +14351,8 @@
       <c r="C53" s="29">
         <v>20</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="62"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="29" t="s">
@@ -14142,8 +14362,8 @@
       <c r="C54" s="29">
         <v>16</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="29" t="s">
@@ -14153,8 +14373,8 @@
       <c r="C55" s="29">
         <v>10</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="62"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="29" t="s">
@@ -14164,12 +14384,10 @@
       <c r="C56" s="29">
         <v>50</v>
       </c>
-      <c r="D56" s="29">
-        <v>50</v>
-      </c>
-      <c r="E56" s="61" t="s">
+      <c r="D56" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E56" s="62"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="56" t="s">
@@ -14179,12 +14397,10 @@
       <c r="C57" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="D57" s="56">
-        <v>3</v>
-      </c>
-      <c r="E57" s="61" t="s">
+      <c r="D57" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E57" s="62"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="56" t="s">
@@ -14194,12 +14410,10 @@
       <c r="C58" s="56">
         <v>20</v>
       </c>
-      <c r="D58" s="56">
-        <v>20</v>
-      </c>
-      <c r="E58" s="61" t="s">
+      <c r="D58" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="E58" s="62"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="56" t="s">
@@ -14209,8 +14423,8 @@
       <c r="C59" s="56">
         <v>10</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="56" t="s">
@@ -14220,12 +14434,10 @@
       <c r="C60" s="56">
         <v>20</v>
       </c>
-      <c r="D60" s="56">
-        <v>10</v>
-      </c>
-      <c r="E60" s="61" t="s">
+      <c r="D60" s="61" t="s">
         <v>1015</v>
       </c>
+      <c r="E60" s="62"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="56" t="s">
@@ -14235,8 +14447,8 @@
       <c r="C61" s="56">
         <v>3</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="62"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="56" t="s">
@@ -14246,12 +14458,10 @@
       <c r="C62" s="56">
         <v>15</v>
       </c>
-      <c r="D62" s="56">
-        <v>12</v>
-      </c>
-      <c r="E62" s="61" t="s">
+      <c r="D62" s="61" t="s">
         <v>1015</v>
       </c>
+      <c r="E62" s="62"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="56" t="s">
@@ -14261,19 +14471,17 @@
       <c r="C63" s="56">
         <v>6</v>
       </c>
-      <c r="D63" s="56">
-        <v>3</v>
-      </c>
-      <c r="E63" s="61" t="s">
+      <c r="D63" s="61" t="s">
         <v>1015</v>
       </c>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="47"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="47"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14287,8 +14495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CBCDA1-5AE1-46DD-8299-631E93011E4D}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14651,10 +14859,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C7E50B-1E42-4EBB-A787-8899DC26A882}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14662,9 +14870,11 @@
     <col min="1" max="1" width="18.296875" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="79.69921875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
         <v>611</v>
       </c>
@@ -14674,11 +14884,17 @@
       <c r="C1" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="D1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>566</v>
       </c>
@@ -14689,7 +14905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
         <v>567</v>
       </c>
@@ -14700,7 +14916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
         <v>571</v>
       </c>
@@ -14708,7 +14924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
         <v>572</v>
       </c>
@@ -14719,7 +14935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
         <v>573</v>
       </c>
@@ -14730,7 +14946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
         <v>574</v>
       </c>
@@ -14741,7 +14957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
         <v>575</v>
       </c>
@@ -14752,7 +14968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
         <v>577</v>
       </c>
@@ -14763,7 +14979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
         <v>578</v>
       </c>
@@ -14771,7 +14987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
         <v>641</v>
       </c>
@@ -14779,18 +14995,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="25" t="s">
         <v>642</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="40" t="s">
         <v>854</v>
       </c>
@@ -14801,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="40" t="s">
         <v>855</v>
       </c>
@@ -14812,7 +15028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="40" t="s">
         <v>854</v>
       </c>
@@ -14823,7 +15039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="40" t="s">
         <v>856</v>
       </c>
@@ -14834,7 +15050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="40" t="s">
         <v>857</v>
       </c>
@@ -14845,7 +15061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="40" t="s">
         <v>858</v>
       </c>
@@ -14856,7 +15072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="40" t="s">
         <v>424</v>
       </c>
@@ -14867,7 +15083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="40" t="s">
         <v>860</v>
       </c>
@@ -14878,7 +15094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21" s="48" t="s">
         <v>952</v>
       </c>
@@ -14888,8 +15104,9 @@
       <c r="C21" s="34">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
         <v>953</v>
       </c>
@@ -14899,8 +15116,9 @@
       <c r="C22" s="34">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="48" t="s">
         <v>954</v>
       </c>
@@ -14910,8 +15128,9 @@
       <c r="C23" s="34">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="48" t="s">
         <v>955</v>
       </c>
@@ -14921,8 +15140,9 @@
       <c r="C24" s="34">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="48" t="s">
         <v>956</v>
       </c>
@@ -14932,8 +15152,9 @@
       <c r="C25" s="34">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="48" t="s">
         <v>957</v>
       </c>
@@ -14943,8 +15164,9 @@
       <c r="C26" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="48" t="s">
         <v>956</v>
       </c>
@@ -14954,8 +15176,9 @@
       <c r="C27" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="48" t="s">
         <v>955</v>
       </c>
@@ -14965,8 +15188,9 @@
       <c r="C28" s="34">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="48" t="s">
         <v>958</v>
       </c>
@@ -14976,12 +15200,31 @@
       <c r="C29" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="48" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1023</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15415,78 +15658,86 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A23DA-F5E1-44EF-93B2-181B21C75C04}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.69921875" customWidth="1"/>
+    <col min="3" max="3" width="62.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -15494,7 +15745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -15502,7 +15753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -15510,7 +15761,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -15518,7 +15769,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -15526,7 +15777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -15534,7 +15785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -15542,7 +15793,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>204</v>
       </c>
@@ -15550,7 +15801,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -15558,14 +15809,28 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>

--- a/electrocomponents inventory_organized_box.xlsx
+++ b/electrocomponents inventory_organized_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1551D71-1D10-4CE7-B4E6-75917B2952A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AB0772-0FBE-4AA5-9F82-B56FB199F161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="1" activeTab="5" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" firstSheet="1" activeTab="3" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1030">
   <si>
     <t>connectors</t>
   </si>
@@ -10458,7 +10458,7 @@
         <v>512</v>
       </c>
       <c r="C17" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B17)), VALUE(LEFT(B17,SEARCH("pF",B17)-1)),
+        <f t="shared" ref="C17:C31" si="0">IF(ISNUMBER(SEARCH("pF",B17)), VALUE(LEFT(B17,SEARCH("pF",B17)-1)),
  IF(ISNUMBER(SEARCH("nF",B17)), VALUE(LEFT(B17,SEARCH("nF",B17)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B17)), VALUE(LEFT(B17,SEARCH("uF",B17)-1))*1000000,"")))</f>
         <v>6.8</v>
@@ -10477,9 +10477,7 @@
         <v>937</v>
       </c>
       <c r="C18" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B18)), VALUE(LEFT(B18,SEARCH("pF",B18)-1)),
- IF(ISNUMBER(SEARCH("nF",B18)), VALUE(LEFT(B18,SEARCH("nF",B18)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B18)), VALUE(LEFT(B18,SEARCH("uF",B18)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D18" s="18"/>
@@ -10499,9 +10497,7 @@
         <v>505</v>
       </c>
       <c r="C19" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B19)), VALUE(LEFT(B19,SEARCH("pF",B19)-1)),
- IF(ISNUMBER(SEARCH("nF",B19)), VALUE(LEFT(B19,SEARCH("nF",B19)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B19)), VALUE(LEFT(B19,SEARCH("uF",B19)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D19" s="19"/>
@@ -10519,9 +10515,7 @@
         <v>321</v>
       </c>
       <c r="C20" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B20)), VALUE(LEFT(B20,SEARCH("pF",B20)-1)),
- IF(ISNUMBER(SEARCH("nF",B20)), VALUE(LEFT(B20,SEARCH("nF",B20)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B20)), VALUE(LEFT(B20,SEARCH("uF",B20)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D20" s="18"/>
@@ -10541,9 +10535,7 @@
         <v>938</v>
       </c>
       <c r="C21" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B21)), VALUE(LEFT(B21,SEARCH("pF",B21)-1)),
- IF(ISNUMBER(SEARCH("nF",B21)), VALUE(LEFT(B21,SEARCH("nF",B21)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B21)), VALUE(LEFT(B21,SEARCH("uF",B21)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D21" s="18"/>
@@ -10563,9 +10555,7 @@
         <v>938</v>
       </c>
       <c r="C22" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B22)), VALUE(LEFT(B22,SEARCH("pF",B22)-1)),
- IF(ISNUMBER(SEARCH("nF",B22)), VALUE(LEFT(B22,SEARCH("nF",B22)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B22)), VALUE(LEFT(B22,SEARCH("uF",B22)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D22" s="18"/>
@@ -10585,9 +10575,7 @@
         <v>321</v>
       </c>
       <c r="C23" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B23)), VALUE(LEFT(B23,SEARCH("pF",B23)-1)),
- IF(ISNUMBER(SEARCH("nF",B23)), VALUE(LEFT(B23,SEARCH("nF",B23)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B23)), VALUE(LEFT(B23,SEARCH("uF",B23)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D23" s="18"/>
@@ -10607,9 +10595,7 @@
         <v>321</v>
       </c>
       <c r="C24" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B24)), VALUE(LEFT(B24,SEARCH("pF",B24)-1)),
- IF(ISNUMBER(SEARCH("nF",B24)), VALUE(LEFT(B24,SEARCH("nF",B24)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B24)), VALUE(LEFT(B24,SEARCH("uF",B24)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D24" s="18"/>
@@ -10629,9 +10615,7 @@
         <v>938</v>
       </c>
       <c r="C25" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B25)), VALUE(LEFT(B25,SEARCH("pF",B25)-1)),
- IF(ISNUMBER(SEARCH("nF",B25)), VALUE(LEFT(B25,SEARCH("nF",B25)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B25)), VALUE(LEFT(B25,SEARCH("uF",B25)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D25" s="18"/>
@@ -10651,9 +10635,7 @@
         <v>815</v>
       </c>
       <c r="C26" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B26)), VALUE(LEFT(B26,SEARCH("pF",B26)-1)),
- IF(ISNUMBER(SEARCH("nF",B26)), VALUE(LEFT(B26,SEARCH("nF",B26)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B26)), VALUE(LEFT(B26,SEARCH("uF",B26)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D26" s="18"/>
@@ -10673,9 +10655,7 @@
         <v>815</v>
       </c>
       <c r="C27" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B27)), VALUE(LEFT(B27,SEARCH("pF",B27)-1)),
- IF(ISNUMBER(SEARCH("nF",B27)), VALUE(LEFT(B27,SEARCH("nF",B27)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B27)), VALUE(LEFT(B27,SEARCH("uF",B27)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D27" s="18"/>
@@ -10695,9 +10675,7 @@
         <v>939</v>
       </c>
       <c r="C28" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B28)), VALUE(LEFT(B28,SEARCH("pF",B28)-1)),
- IF(ISNUMBER(SEARCH("nF",B28)), VALUE(LEFT(B28,SEARCH("nF",B28)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B28)), VALUE(LEFT(B28,SEARCH("uF",B28)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D28" s="18"/>
@@ -10717,9 +10695,7 @@
         <v>179</v>
       </c>
       <c r="C29" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B29)), VALUE(LEFT(B29,SEARCH("pF",B29)-1)),
- IF(ISNUMBER(SEARCH("nF",B29)), VALUE(LEFT(B29,SEARCH("nF",B29)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B29)), VALUE(LEFT(B29,SEARCH("uF",B29)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D29" s="18"/>
@@ -10739,9 +10715,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B30)), VALUE(LEFT(B30,SEARCH("pF",B30)-1)),
- IF(ISNUMBER(SEARCH("nF",B30)), VALUE(LEFT(B30,SEARCH("nF",B30)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B30)), VALUE(LEFT(B30,SEARCH("uF",B30)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D30" s="18"/>
@@ -10761,9 +10735,7 @@
         <v>776</v>
       </c>
       <c r="C31" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B31)), VALUE(LEFT(B31,SEARCH("pF",B31)-1)),
- IF(ISNUMBER(SEARCH("nF",B31)), VALUE(LEFT(B31,SEARCH("nF",B31)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B31)), VALUE(LEFT(B31,SEARCH("uF",B31)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D31" s="18"/>
@@ -11324,7 +11296,7 @@
         <v>1000</v>
       </c>
       <c r="C58" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B58)), VALUE(LEFT(B58,SEARCH("pF",B58)-1)),
+        <f t="shared" ref="C58:C72" si="1">IF(ISNUMBER(SEARCH("pF",B58)), VALUE(LEFT(B58,SEARCH("pF",B58)-1)),
  IF(ISNUMBER(SEARCH("nF",B58)), VALUE(LEFT(B58,SEARCH("nF",B58)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B58)), VALUE(LEFT(B58,SEARCH("uF",B58)-1))*1000000,"")))</f>
         <v>10000</v>
@@ -11348,9 +11320,7 @@
         <v>702</v>
       </c>
       <c r="C59" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B59)), VALUE(LEFT(B59,SEARCH("pF",B59)-1)),
- IF(ISNUMBER(SEARCH("nF",B59)), VALUE(LEFT(B59,SEARCH("nF",B59)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B59)), VALUE(LEFT(B59,SEARCH("uF",B59)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D59" s="45"/>
@@ -11370,9 +11340,7 @@
         <v>778</v>
       </c>
       <c r="C60" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B60)), VALUE(LEFT(B60,SEARCH("pF",B60)-1)),
- IF(ISNUMBER(SEARCH("nF",B60)), VALUE(LEFT(B60,SEARCH("nF",B60)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B60)), VALUE(LEFT(B60,SEARCH("uF",B60)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D60" s="18"/>
@@ -11392,9 +11360,7 @@
         <v>941</v>
       </c>
       <c r="C61" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B61)), VALUE(LEFT(B61,SEARCH("pF",B61)-1)),
- IF(ISNUMBER(SEARCH("nF",B61)), VALUE(LEFT(B61,SEARCH("nF",B61)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B61)), VALUE(LEFT(B61,SEARCH("uF",B61)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D61" s="18"/>
@@ -11414,9 +11380,7 @@
         <v>941</v>
       </c>
       <c r="C62" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B62)), VALUE(LEFT(B62,SEARCH("pF",B62)-1)),
- IF(ISNUMBER(SEARCH("nF",B62)), VALUE(LEFT(B62,SEARCH("nF",B62)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B62)), VALUE(LEFT(B62,SEARCH("uF",B62)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D62" s="18"/>
@@ -11436,9 +11400,7 @@
         <v>941</v>
       </c>
       <c r="C63" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B63)), VALUE(LEFT(B63,SEARCH("pF",B63)-1)),
- IF(ISNUMBER(SEARCH("nF",B63)), VALUE(LEFT(B63,SEARCH("nF",B63)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B63)), VALUE(LEFT(B63,SEARCH("uF",B63)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D63" s="18"/>
@@ -11458,9 +11420,7 @@
         <v>941</v>
       </c>
       <c r="C64" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B64)), VALUE(LEFT(B64,SEARCH("pF",B64)-1)),
- IF(ISNUMBER(SEARCH("nF",B64)), VALUE(LEFT(B64,SEARCH("nF",B64)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B64)), VALUE(LEFT(B64,SEARCH("uF",B64)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D64" s="18"/>
@@ -11480,9 +11440,7 @@
         <v>941</v>
       </c>
       <c r="C65" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B65)), VALUE(LEFT(B65,SEARCH("pF",B65)-1)),
- IF(ISNUMBER(SEARCH("nF",B65)), VALUE(LEFT(B65,SEARCH("nF",B65)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B65)), VALUE(LEFT(B65,SEARCH("uF",B65)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D65" s="45"/>
@@ -11504,9 +11462,7 @@
         <v>942</v>
       </c>
       <c r="C66" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B66)), VALUE(LEFT(B66,SEARCH("pF",B66)-1)),
- IF(ISNUMBER(SEARCH("nF",B66)), VALUE(LEFT(B66,SEARCH("nF",B66)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B66)), VALUE(LEFT(B66,SEARCH("uF",B66)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>22000</v>
       </c>
       <c r="D66" s="18"/>
@@ -11526,9 +11482,7 @@
         <v>502</v>
       </c>
       <c r="C67" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B67)), VALUE(LEFT(B67,SEARCH("pF",B67)-1)),
- IF(ISNUMBER(SEARCH("nF",B67)), VALUE(LEFT(B67,SEARCH("nF",B67)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B67)), VALUE(LEFT(B67,SEARCH("uF",B67)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D67" s="20"/>
@@ -11546,9 +11500,7 @@
         <v>780</v>
       </c>
       <c r="C68" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B68)), VALUE(LEFT(B68,SEARCH("pF",B68)-1)),
- IF(ISNUMBER(SEARCH("nF",B68)), VALUE(LEFT(B68,SEARCH("nF",B68)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B68)), VALUE(LEFT(B68,SEARCH("uF",B68)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D68" s="18"/>
@@ -11568,9 +11520,7 @@
         <v>692</v>
       </c>
       <c r="C69" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B69)), VALUE(LEFT(B69,SEARCH("pF",B69)-1)),
- IF(ISNUMBER(SEARCH("nF",B69)), VALUE(LEFT(B69,SEARCH("nF",B69)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B69)), VALUE(LEFT(B69,SEARCH("uF",B69)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D69" s="45"/>
@@ -11592,9 +11542,7 @@
         <v>692</v>
       </c>
       <c r="C70" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B70)), VALUE(LEFT(B70,SEARCH("pF",B70)-1)),
- IF(ISNUMBER(SEARCH("nF",B70)), VALUE(LEFT(B70,SEARCH("nF",B70)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B70)), VALUE(LEFT(B70,SEARCH("uF",B70)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D70" s="45"/>
@@ -11614,9 +11562,7 @@
         <v>692</v>
       </c>
       <c r="C71" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B71)), VALUE(LEFT(B71,SEARCH("pF",B71)-1)),
- IF(ISNUMBER(SEARCH("nF",B71)), VALUE(LEFT(B71,SEARCH("nF",B71)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B71)), VALUE(LEFT(B71,SEARCH("uF",B71)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D71" s="45"/>
@@ -11638,9 +11584,7 @@
         <v>692</v>
       </c>
       <c r="C72" s="45">
-        <f>IF(ISNUMBER(SEARCH("pF",B72)), VALUE(LEFT(B72,SEARCH("pF",B72)-1)),
- IF(ISNUMBER(SEARCH("nF",B72)), VALUE(LEFT(B72,SEARCH("nF",B72)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B72)), VALUE(LEFT(B72,SEARCH("uF",B72)-1))*1000000,"")))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D72" s="45"/>
@@ -11726,7 +11670,7 @@
         <v>704</v>
       </c>
       <c r="C76" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B76)), VALUE(LEFT(B76,SEARCH("pF",B76)-1)),
+        <f t="shared" ref="C76:C82" si="2">IF(ISNUMBER(SEARCH("pF",B76)), VALUE(LEFT(B76,SEARCH("pF",B76)-1)),
  IF(ISNUMBER(SEARCH("nF",B76)), VALUE(LEFT(B76,SEARCH("nF",B76)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",B76)), VALUE(LEFT(B76,SEARCH("uF",B76)-1))*1000000,"")))</f>
         <v>1000000</v>
@@ -11748,9 +11692,7 @@
         <v>704</v>
       </c>
       <c r="C77" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B77)), VALUE(LEFT(B77,SEARCH("pF",B77)-1)),
- IF(ISNUMBER(SEARCH("nF",B77)), VALUE(LEFT(B77,SEARCH("nF",B77)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B77)), VALUE(LEFT(B77,SEARCH("uF",B77)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="D77" s="18"/>
@@ -11770,9 +11712,7 @@
         <v>943</v>
       </c>
       <c r="C78" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B78)), VALUE(LEFT(B78,SEARCH("pF",B78)-1)),
- IF(ISNUMBER(SEARCH("nF",B78)), VALUE(LEFT(B78,SEARCH("nF",B78)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B78)), VALUE(LEFT(B78,SEARCH("uF",B78)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="D78" s="18"/>
@@ -11792,9 +11732,7 @@
         <v>774</v>
       </c>
       <c r="C79" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B79)), VALUE(LEFT(B79,SEARCH("pF",B79)-1)),
- IF(ISNUMBER(SEARCH("nF",B79)), VALUE(LEFT(B79,SEARCH("nF",B79)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B79)), VALUE(LEFT(B79,SEARCH("uF",B79)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="D79" s="18"/>
@@ -11814,9 +11752,7 @@
         <v>943</v>
       </c>
       <c r="C80" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B80)), VALUE(LEFT(B80,SEARCH("pF",B80)-1)),
- IF(ISNUMBER(SEARCH("nF",B80)), VALUE(LEFT(B80,SEARCH("nF",B80)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B80)), VALUE(LEFT(B80,SEARCH("uF",B80)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="D80" s="18" t="s">
@@ -11840,9 +11776,7 @@
         <v>943</v>
       </c>
       <c r="C81" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B81)), VALUE(LEFT(B81,SEARCH("pF",B81)-1)),
- IF(ISNUMBER(SEARCH("nF",B81)), VALUE(LEFT(B81,SEARCH("nF",B81)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B81)), VALUE(LEFT(B81,SEARCH("uF",B81)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -11866,9 +11800,7 @@
         <v>771</v>
       </c>
       <c r="C82" s="18">
-        <f>IF(ISNUMBER(SEARCH("pF",B82)), VALUE(LEFT(B82,SEARCH("pF",B82)-1)),
- IF(ISNUMBER(SEARCH("nF",B82)), VALUE(LEFT(B82,SEARCH("nF",B82)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",B82)), VALUE(LEFT(B82,SEARCH("uF",B82)-1))*1000000,"")))</f>
+        <f t="shared" si="2"/>
         <v>2200000</v>
       </c>
       <c r="D82" s="18"/>
@@ -12119,7 +12051,7 @@
         <v>519</v>
       </c>
       <c r="C94" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B94)), VALUE(LEFT(B94,SEARCH("pF",B94)-1)),
+        <f t="shared" ref="C94:C103" si="3">IF(ISNUMBER(SEARCH("pF",B94)), VALUE(LEFT(B94,SEARCH("pF",B94)-1)),
  IF(ISNUMBER(SEARCH("nF",B94)), VALUE(LEFT(B94,SEARCH("nF",B94)-1))*1000,
  IF(ISNUMBER(SEARCH("µF",B94)), VALUE(LEFT(B94,SEARCH("µF",B94)-1))*1000000,"")))</f>
         <v>15000000</v>
@@ -12138,9 +12070,7 @@
         <v>524</v>
       </c>
       <c r="C95" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B95)), VALUE(LEFT(B95,SEARCH("pF",B95)-1)),
- IF(ISNUMBER(SEARCH("nF",B95)), VALUE(LEFT(B95,SEARCH("nF",B95)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B95)), VALUE(LEFT(B95,SEARCH("µF",B95)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>22000000</v>
       </c>
       <c r="D95" s="20"/>
@@ -12157,9 +12087,7 @@
         <v>524</v>
       </c>
       <c r="C96" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B96)), VALUE(LEFT(B96,SEARCH("pF",B96)-1)),
- IF(ISNUMBER(SEARCH("nF",B96)), VALUE(LEFT(B96,SEARCH("nF",B96)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B96)), VALUE(LEFT(B96,SEARCH("µF",B96)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>22000000</v>
       </c>
       <c r="D96" s="19"/>
@@ -12176,9 +12104,7 @@
         <v>524</v>
       </c>
       <c r="C97" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B97)), VALUE(LEFT(B97,SEARCH("pF",B97)-1)),
- IF(ISNUMBER(SEARCH("nF",B97)), VALUE(LEFT(B97,SEARCH("nF",B97)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B97)), VALUE(LEFT(B97,SEARCH("µF",B97)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>22000000</v>
       </c>
       <c r="D97" s="19"/>
@@ -12195,9 +12121,7 @@
         <v>524</v>
       </c>
       <c r="C98" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B98)), VALUE(LEFT(B98,SEARCH("pF",B98)-1)),
- IF(ISNUMBER(SEARCH("nF",B98)), VALUE(LEFT(B98,SEARCH("nF",B98)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B98)), VALUE(LEFT(B98,SEARCH("µF",B98)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>22000000</v>
       </c>
       <c r="D98" s="19"/>
@@ -12215,9 +12139,7 @@
         <v>524</v>
       </c>
       <c r="C99" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B99)), VALUE(LEFT(B99,SEARCH("pF",B99)-1)),
- IF(ISNUMBER(SEARCH("nF",B99)), VALUE(LEFT(B99,SEARCH("nF",B99)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B99)), VALUE(LEFT(B99,SEARCH("µF",B99)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>22000000</v>
       </c>
       <c r="D99" s="19"/>
@@ -12234,9 +12156,7 @@
         <v>520</v>
       </c>
       <c r="C100" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B100)), VALUE(LEFT(B100,SEARCH("pF",B100)-1)),
- IF(ISNUMBER(SEARCH("nF",B100)), VALUE(LEFT(B100,SEARCH("nF",B100)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B100)), VALUE(LEFT(B100,SEARCH("µF",B100)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>33000000</v>
       </c>
       <c r="D100" s="19"/>
@@ -12253,9 +12173,7 @@
         <v>521</v>
       </c>
       <c r="C101" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B101)), VALUE(LEFT(B101,SEARCH("pF",B101)-1)),
- IF(ISNUMBER(SEARCH("nF",B101)), VALUE(LEFT(B101,SEARCH("nF",B101)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B101)), VALUE(LEFT(B101,SEARCH("µF",B101)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>47000000</v>
       </c>
       <c r="D101" s="19"/>
@@ -12273,9 +12191,7 @@
         <v>521</v>
       </c>
       <c r="C102" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B102)), VALUE(LEFT(B102,SEARCH("pF",B102)-1)),
- IF(ISNUMBER(SEARCH("nF",B102)), VALUE(LEFT(B102,SEARCH("nF",B102)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B102)), VALUE(LEFT(B102,SEARCH("µF",B102)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>47000000</v>
       </c>
       <c r="D102" s="19"/>
@@ -12293,9 +12209,7 @@
         <v>536</v>
       </c>
       <c r="C103" s="20">
-        <f>IF(ISNUMBER(SEARCH("pF",B103)), VALUE(LEFT(B103,SEARCH("pF",B103)-1)),
- IF(ISNUMBER(SEARCH("nF",B103)), VALUE(LEFT(B103,SEARCH("nF",B103)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",B103)), VALUE(LEFT(B103,SEARCH("µF",B103)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
       <c r="D103" s="19"/>
@@ -12916,8 +12830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F56564-447C-4AC0-9A0C-F03B4328A463}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13351,7 +13265,7 @@
         <v>648</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -13725,7 +13639,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14495,8 +14409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CBCDA1-5AE1-46DD-8299-631E93011E4D}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14570,7 +14484,7 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -14861,8 +14775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C7E50B-1E42-4EBB-A787-8899DC26A882}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14992,7 +14906,7 @@
         <v>641</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
